--- a/INTLINE/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
@@ -1,285 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TCPP" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCPP" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2006-01-01</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2007-01-01</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2009-01-01</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2011-01-01</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2013-01-01</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Liquified Petroleum Gas</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Naphtha</t>
-  </si>
-  <si>
-    <t>Kerosene</t>
-  </si>
-  <si>
-    <t>Aviation Turbine Fuel</t>
-  </si>
-  <si>
-    <t>High Speed Diesel Oil</t>
-  </si>
-  <si>
-    <t>Light Diesel Oil</t>
-  </si>
-  <si>
-    <t>Fuel oil</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Bitumen</t>
-  </si>
-  <si>
-    <t>Petroleum Coke</t>
-  </si>
-  <si>
-    <t>Refinery Fuel and Losses</t>
-  </si>
-  <si>
-    <t>Other Pertroleum Products</t>
-  </si>
-  <si>
-    <t>Total including Refinery Fuel</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -294,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -313,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -610,2972 +353,5784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01-01</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01-01</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01-01</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01-01</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01-01</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01-01</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01-01</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:66">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Liquified Petroleum Gas</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>180</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>212</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>244</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>269</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>289</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>340</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>368</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>391</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>408</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>410</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>410</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>492</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>601</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>746</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>953</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>1240</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>1497</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>1686</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>1962</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>2268</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>2420</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>2650</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>2866</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>3113</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>3434</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>3920</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>4267</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>4803</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>5352</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>6421</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>7016</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>7730</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>8350</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>9310</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>10250</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>10460</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>10850</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>10850</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
+        <v>10850</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10850</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>10850</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>10850</v>
+      </c>
+      <c r="AR2" t="n">
         <v>12170</v>
       </c>
-      <c r="AO2">
+      <c r="AS2" t="n">
         <v>12170</v>
       </c>
-      <c r="AP2">
+      <c r="AT2" t="n">
+        <v>12170</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>12170</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>12170</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>12170</v>
+      </c>
+      <c r="AX2" t="n">
         <v>12191.117884</v>
       </c>
-      <c r="AQ2">
+      <c r="AY2" t="n">
         <v>12191.117884</v>
       </c>
-      <c r="AR2">
+      <c r="AZ2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BD2" t="n">
         <v>13140</v>
       </c>
-      <c r="AS2">
+      <c r="BE2" t="n">
         <v>13140</v>
       </c>
-      <c r="AT2">
+      <c r="BF2" t="n">
+        <v>13140</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>13140</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>13140</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>13140</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="AU2">
+      <c r="BK2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="AV2">
+      <c r="BL2" t="n">
+        <v>14331.4</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>14331.4</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>14331.4</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>14331.4</v>
+      </c>
+      <c r="BP2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="AW2">
+      <c r="BQ2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="AX2">
+      <c r="BR2" t="n">
+        <v>15349.7</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>15349.7</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>15349.7</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>15349.7</v>
+      </c>
+      <c r="BV2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="AY2">
+      <c r="BW2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="AZ2">
+      <c r="BX2" t="n">
+        <v>15600.7</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>15600.7</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>15600.7</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>15600.7</v>
+      </c>
+      <c r="CB2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="BA2">
+      <c r="CC2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="BB2">
+      <c r="CD2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CH2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="BC2">
+      <c r="CI2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="BD2">
+      <c r="CJ2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="CN2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="BE2">
+      <c r="CO2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="BF2">
+      <c r="CP2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="CT2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="BG2">
+      <c r="CU2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="BH2">
+      <c r="CV2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="BI2">
+      <c r="DA2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="BJ2">
+      <c r="DB2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="DF2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="BK2">
+      <c r="DG2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="BL2">
+      <c r="DH2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="DL2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="BM2">
+      <c r="DM2" t="n">
         <v>26329.7799990071</v>
       </c>
+      <c r="DN2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="DR2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:66">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1530</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1527</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1592</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1507</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1264</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1280</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1316</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1391</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1499</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1490</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1520</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>1599</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>1722</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1891</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>2084</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>2310</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>2505</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>2810</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3052</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>3491</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>3550</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>3573</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>3595</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>3834</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>4141</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>4460</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>4955</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>5182</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>5507</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>5909</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>8070</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>7011</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>7570</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>7897</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>8251</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>8650</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>9290</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>9290</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
+        <v>9290</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9290</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>9290</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>9290</v>
+      </c>
+      <c r="AR3" t="n">
         <v>10330</v>
       </c>
-      <c r="AO3">
+      <c r="AS3" t="n">
         <v>10330</v>
       </c>
-      <c r="AP3">
+      <c r="AT3" t="n">
+        <v>10330</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10330</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>10330</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>10330</v>
+      </c>
+      <c r="AX3" t="n">
         <v>11257.772</v>
       </c>
-      <c r="AQ3">
+      <c r="AY3" t="n">
         <v>11257.772</v>
       </c>
-      <c r="AR3">
+      <c r="AZ3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BD3" t="n">
         <v>12820</v>
       </c>
-      <c r="AS3">
+      <c r="BE3" t="n">
         <v>12820</v>
       </c>
-      <c r="AT3">
+      <c r="BF3" t="n">
+        <v>12820</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>12820</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>12820</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>12820</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="AU3">
+      <c r="BK3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="AV3">
+      <c r="BL3" t="n">
+        <v>14194.4</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>14194.4</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>14194.4</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>14194.4</v>
+      </c>
+      <c r="BP3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="AW3">
+      <c r="BQ3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="AX3">
+      <c r="BR3" t="n">
+        <v>14992.4</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>14992.4</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>14992.4</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>14992.4</v>
+      </c>
+      <c r="BV3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="AY3">
+      <c r="BW3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="AZ3">
+      <c r="BX3" t="n">
+        <v>15743.9</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>15743.9</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>15743.9</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>15743.9</v>
+      </c>
+      <c r="CB3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="BA3">
+      <c r="CC3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="BB3">
+      <c r="CD3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CH3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="BC3">
+      <c r="CI3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="BD3">
+      <c r="CJ3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="CN3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="BE3">
+      <c r="CO3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="BF3">
+      <c r="CP3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="CT3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="BG3">
+      <c r="CU3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="BH3">
+      <c r="CV3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="CZ3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="BI3">
+      <c r="DA3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="BJ3">
+      <c r="DB3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="DF3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="BK3">
+      <c r="DG3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="BL3">
+      <c r="DH3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="DL3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="BM3">
+      <c r="DM3" t="n">
         <v>29975.488406249</v>
       </c>
+      <c r="DN3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="DR3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:66">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Naphtha</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>900</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1164</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1297</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1534</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>1713</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1840</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>2196</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>2290</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2515</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>2413</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>2330</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>2963</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2958</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>2804</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>3125</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>3110</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>3249</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>2852</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>3364</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>3350</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>3450</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>3461</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>3382</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>3191</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>3400</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>4150</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>4030</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>6590</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>8891</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>10801</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>11673</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>11730</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>11930</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>11860</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>13990</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>12190</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>13890</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>13890</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
+        <v>13890</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13890</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>13890</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>13890</v>
+      </c>
+      <c r="AR4" t="n">
         <v>13290</v>
       </c>
-      <c r="AO4">
+      <c r="AS4" t="n">
         <v>13290</v>
       </c>
-      <c r="AP4">
+      <c r="AT4" t="n">
+        <v>13290</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>13290</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>13290</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>13290</v>
+      </c>
+      <c r="AX4" t="n">
         <v>13910.7253</v>
       </c>
-      <c r="AQ4">
+      <c r="AY4" t="n">
         <v>13910.7253</v>
       </c>
-      <c r="AR4">
+      <c r="AZ4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BD4" t="n">
         <v>10130</v>
       </c>
-      <c r="AS4">
+      <c r="BE4" t="n">
         <v>10130</v>
       </c>
-      <c r="AT4">
+      <c r="BF4" t="n">
+        <v>10130</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>10130</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>10130</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>10130</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="AU4">
+      <c r="BK4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="AV4">
+      <c r="BL4" t="n">
+        <v>10676.3</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>10676.3</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>10676.3</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>10676.3</v>
+      </c>
+      <c r="BP4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="AW4">
+      <c r="BQ4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="AX4">
+      <c r="BR4" t="n">
+        <v>11221.5</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>11221.5</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>11221.5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>11221.5</v>
+      </c>
+      <c r="BV4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="AY4">
+      <c r="BW4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="AZ4">
+      <c r="BX4" t="n">
+        <v>12289.4</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>12289.4</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>12289.4</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>12289.4</v>
+      </c>
+      <c r="CB4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="BA4">
+      <c r="CC4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="BB4">
+      <c r="CD4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CH4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="BC4">
+      <c r="CI4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="BD4">
+      <c r="CJ4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="CN4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="BE4">
+      <c r="CO4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="BF4">
+      <c r="CP4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="CT4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="BG4">
+      <c r="CU4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="BH4">
+      <c r="CV4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="BI4">
+      <c r="DA4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="BJ4">
+      <c r="DB4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="DF4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="BK4">
+      <c r="DG4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="BL4">
+      <c r="DH4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="DL4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="BM4">
+      <c r="DM4" t="n">
         <v>14267.7787825455</v>
       </c>
+      <c r="DN4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="DR4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:66">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Kerosene</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3280</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>3517</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3516</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3294</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>2828</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>3100</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>3322</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>3634</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>3952</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>3872</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>4230</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>4693</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>5214</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>5524</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>5959</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>6230</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>6645</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>7231</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>7731</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>8239</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>8420</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>8377</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>8478</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>8704</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>8964</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>9930</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>10153</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>11065</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>12243</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>11898</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>11307</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>10430</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>10410</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>10230</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>9400</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>9540</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>9510</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>9510</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
+        <v>9510</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9510</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>9510</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>9510</v>
+      </c>
+      <c r="AR5" t="n">
         <v>9370</v>
       </c>
-      <c r="AO5">
+      <c r="AS5" t="n">
         <v>9370</v>
       </c>
-      <c r="AP5">
+      <c r="AT5" t="n">
+        <v>9370</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9370</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>9370</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9370</v>
+      </c>
+      <c r="AX5" t="n">
         <v>9302.868999999999</v>
       </c>
-      <c r="AQ5">
+      <c r="AY5" t="n">
         <v>9302.868999999999</v>
       </c>
-      <c r="AR5">
+      <c r="AZ5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BD5" t="n">
         <v>9300</v>
       </c>
-      <c r="AS5">
+      <c r="BE5" t="n">
         <v>9300</v>
       </c>
-      <c r="AT5">
+      <c r="BF5" t="n">
+        <v>9300</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>9300</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>9300</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>9300</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="AU5">
+      <c r="BK5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="AV5">
+      <c r="BL5" t="n">
+        <v>8927.799999999999</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>8927.799999999999</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>8927.799999999999</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>8927.799999999999</v>
+      </c>
+      <c r="BP5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="AW5">
+      <c r="BQ5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="AX5">
+      <c r="BR5" t="n">
+        <v>8228.700000000001</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>8228.700000000001</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>8228.700000000001</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8228.700000000001</v>
+      </c>
+      <c r="BV5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="AY5">
+      <c r="BW5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="AZ5">
+      <c r="BX5" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="CB5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="BA5">
+      <c r="CC5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="BB5">
+      <c r="CD5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CH5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="BC5">
+      <c r="CI5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="BD5">
+      <c r="CJ5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="CN5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="BE5">
+      <c r="CO5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="BF5">
+      <c r="CP5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="CT5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="BG5">
+      <c r="CU5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="BH5">
+      <c r="CV5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="BI5">
+      <c r="DA5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="BJ5">
+      <c r="DB5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="DF5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="BK5">
+      <c r="DG5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="BL5">
+      <c r="DH5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="DL5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="BM5">
+      <c r="DM5" t="n">
         <v>2396.8245022973</v>
       </c>
+      <c r="DN5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="DR5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:66">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Aviation Turbine Fuel</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>690</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>758</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>816</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>778</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>836</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>900</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>956</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>1041</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1154</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1144</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>1130</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1128</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>1145</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>1208</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>1336</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>1450</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>1603</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>1654</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>1713</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>1775</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>1680</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>1559</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>1565</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>1741</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>1903</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>2080</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>2154</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>2108</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>2112</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>2197</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>2249</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>2260</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>2270</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>2480</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>2810</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>3300</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>3980</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>3980</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
+        <v>3980</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3980</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3980</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3980</v>
+      </c>
+      <c r="AR6" t="n">
         <v>4540</v>
       </c>
-      <c r="AO6">
+      <c r="AS6" t="n">
         <v>4540</v>
       </c>
-      <c r="AP6">
+      <c r="AT6" t="n">
+        <v>4540</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4540</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>4540</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4540</v>
+      </c>
+      <c r="AX6" t="n">
         <v>4423.20055</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6" t="n">
         <v>4423.20055</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BD6" t="n">
         <v>4630</v>
       </c>
-      <c r="AS6">
+      <c r="BE6" t="n">
         <v>4630</v>
       </c>
-      <c r="AT6">
+      <c r="BF6" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="AU6">
+      <c r="BK6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="AV6">
+      <c r="BL6" t="n">
+        <v>5078.400000000001</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>5078.400000000001</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>5078.400000000001</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>5078.400000000001</v>
+      </c>
+      <c r="BP6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="AW6">
+      <c r="BQ6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="AX6">
+      <c r="BR6" t="n">
+        <v>5536.1</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>5536.1</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>5536.1</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5536.1</v>
+      </c>
+      <c r="BV6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="AY6">
+      <c r="BW6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="AZ6">
+      <c r="BX6" t="n">
+        <v>5270.5</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>5270.5</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>5270.5</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>5270.5</v>
+      </c>
+      <c r="CB6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="BA6">
+      <c r="CC6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="BB6">
+      <c r="CD6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CH6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="BC6">
+      <c r="CI6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="BD6">
+      <c r="CJ6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="CN6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="BE6">
+      <c r="CO6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="BF6">
+      <c r="CP6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="CT6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="BG6">
+      <c r="CU6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="BH6">
+      <c r="CV6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="CZ6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="BI6">
+      <c r="DA6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="BJ6">
+      <c r="DB6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="DF6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="BK6">
+      <c r="DG6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="BL6">
+      <c r="DH6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="DL6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="BM6">
+      <c r="DM6" t="n">
         <v>7998.60903551754</v>
       </c>
+      <c r="DN6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="DR6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:66">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>High Speed Diesel Oil</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>3840</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4340</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4770</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>5404</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>6950</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6600</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>7106</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>7736</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>8638</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>9801</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>10350</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>10832</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>12013</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>12600</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>13696</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>14890</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>16009</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>17657</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>18795</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>20706</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>21140</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>22680</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>24293</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>25872</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>28261</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>32260</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>35019</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>36071</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>37217</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>39295</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>37958</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>36550</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>36640</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>37070</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>39650</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>40190</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>42900</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>42900</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
+        <v>42900</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>42900</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>42900</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>42900</v>
+      </c>
+      <c r="AR7" t="n">
         <v>47670</v>
       </c>
-      <c r="AO7">
+      <c r="AS7" t="n">
         <v>47670</v>
       </c>
-      <c r="AP7">
+      <c r="AT7" t="n">
+        <v>47670</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>47670</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>47670</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>47670</v>
+      </c>
+      <c r="AX7" t="n">
         <v>51710.357</v>
       </c>
-      <c r="AQ7">
+      <c r="AY7" t="n">
         <v>51710.357</v>
       </c>
-      <c r="AR7">
+      <c r="AZ7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BD7" t="n">
         <v>56240</v>
       </c>
-      <c r="AS7">
+      <c r="BE7" t="n">
         <v>56240</v>
       </c>
-      <c r="AT7">
+      <c r="BF7" t="n">
+        <v>56240</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>56240</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>56240</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>56240</v>
+      </c>
+      <c r="BJ7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="AU7">
+      <c r="BK7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="AV7">
+      <c r="BL7" t="n">
+        <v>60071.1</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>60071.1</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>60071.1</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>60071.1</v>
+      </c>
+      <c r="BP7" t="n">
         <v>64750</v>
       </c>
-      <c r="AW7">
+      <c r="BQ7" t="n">
         <v>64750</v>
       </c>
-      <c r="AX7">
+      <c r="BR7" t="n">
+        <v>64750</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>64750</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>64750</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>64750</v>
+      </c>
+      <c r="BV7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="AY7">
+      <c r="BW7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="AZ7">
+      <c r="BX7" t="n">
+        <v>69079.89999999999</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>69079.89999999999</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>69079.89999999999</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>69079.89999999999</v>
+      </c>
+      <c r="CB7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="BA7">
+      <c r="CC7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="BB7">
+      <c r="CD7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CH7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="BC7">
+      <c r="CI7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="BD7">
+      <c r="CJ7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="CN7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="BE7">
+      <c r="CO7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="BF7">
+      <c r="CP7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="CT7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="BG7">
+      <c r="CU7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="BH7">
+      <c r="CV7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="CZ7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="BI7">
+      <c r="DA7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="BJ7">
+      <c r="DB7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="DF7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="BK7">
+      <c r="DG7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="BL7">
+      <c r="DH7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="DL7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="BM7">
+      <c r="DM7" t="n">
         <v>82602.01250544679</v>
       </c>
+      <c r="DN7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="DR7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:66">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Light Diesel Oil</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1090</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1200</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1436</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>1278</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1070</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>880</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1082</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1164</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1216</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1266</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>1120</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>1036</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>1067</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>1097</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>1198</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>1120</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>1156</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>1245</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>1437</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>1486</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>1510</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>1462</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>1407</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>1370</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>1369</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>1310</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>1223</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>1235</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>1278</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>1512</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>1399</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>1590</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>2060</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>1620</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>1480</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>880</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>720</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>720</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AR8" t="n">
         <v>670</v>
       </c>
-      <c r="AO8">
+      <c r="AS8" t="n">
         <v>670</v>
       </c>
-      <c r="AP8">
+      <c r="AT8" t="n">
+        <v>670</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>670</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>670</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>670</v>
+      </c>
+      <c r="AX8" t="n">
         <v>552.2569999999999</v>
       </c>
-      <c r="AQ8">
+      <c r="AY8" t="n">
         <v>552.2569999999999</v>
       </c>
-      <c r="AR8">
+      <c r="AZ8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BD8" t="n">
         <v>460</v>
       </c>
-      <c r="AS8">
+      <c r="BE8" t="n">
         <v>460</v>
       </c>
-      <c r="AT8">
+      <c r="BF8" t="n">
+        <v>460</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>460</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>460</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>460</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>455.3</v>
       </c>
-      <c r="AU8">
+      <c r="BK8" t="n">
         <v>455.3</v>
       </c>
-      <c r="AV8">
+      <c r="BL8" t="n">
+        <v>455.3</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>455.3</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>455.3</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>455.3</v>
+      </c>
+      <c r="BP8" t="n">
         <v>414.8</v>
       </c>
-      <c r="AW8">
+      <c r="BQ8" t="n">
         <v>414.8</v>
       </c>
-      <c r="AX8">
+      <c r="BR8" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="BV8" t="n">
         <v>398.5</v>
       </c>
-      <c r="AY8">
+      <c r="BW8" t="n">
         <v>398.5</v>
       </c>
-      <c r="AZ8">
+      <c r="BX8" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="CB8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="BA8">
+      <c r="CC8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="BB8">
+      <c r="CD8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CH8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="BC8">
+      <c r="CI8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="BD8">
+      <c r="CJ8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="CN8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="BE8">
+      <c r="CO8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="BF8">
+      <c r="CP8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="CT8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="BG8">
+      <c r="CU8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="BH8">
+      <c r="CV8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="CZ8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="BI8">
+      <c r="DA8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="BJ8">
+      <c r="DB8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="DF8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="BK8">
+      <c r="DG8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="BL8">
+      <c r="DH8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="DL8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="BM8">
+      <c r="DM8" t="n">
         <v>627.799544639932</v>
       </c>
+      <c r="DN8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="DR8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:66">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuel oil</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>4660</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>5142</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>5661</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>5912</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>5729</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5780</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>5733</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>5839</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>6668</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>7081</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>7470</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>7184</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>7301</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>7558</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>7944</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>7900</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>8047</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>8144</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>8456</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>8820</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>8990</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>9202</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>9267</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>9192</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>9889</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>11160</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>11507</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>11491</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>12510</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>12453</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>12653</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>12980</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>12740</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>12950</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>13540</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>12830</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>12620</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>12620</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
+        <v>12620</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12620</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12620</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>12620</v>
+      </c>
+      <c r="AR9" t="n">
         <v>12720</v>
       </c>
-      <c r="AO9">
+      <c r="AS9" t="n">
         <v>12720</v>
       </c>
-      <c r="AP9">
+      <c r="AT9" t="n">
+        <v>12720</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>12720</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>12720</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12720</v>
+      </c>
+      <c r="AX9" t="n">
         <v>12588.05593</v>
       </c>
-      <c r="AQ9">
+      <c r="AY9" t="n">
         <v>12588.05593</v>
       </c>
-      <c r="AR9">
+      <c r="AZ9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BD9" t="n">
         <v>11630</v>
       </c>
-      <c r="AS9">
+      <c r="BE9" t="n">
         <v>11630</v>
       </c>
-      <c r="AT9">
+      <c r="BF9" t="n">
+        <v>11630</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>11630</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>11630</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>11630</v>
+      </c>
+      <c r="BJ9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="AU9">
+      <c r="BK9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="AV9">
+      <c r="BL9" t="n">
+        <v>10789.2</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>10789.2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>10789.2</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>10789.2</v>
+      </c>
+      <c r="BP9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="AW9">
+      <c r="BQ9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="AX9">
+      <c r="BR9" t="n">
+        <v>9306.6</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>9306.6</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>9306.6</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9306.6</v>
+      </c>
+      <c r="BV9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="AY9">
+      <c r="BW9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="AZ9">
+      <c r="BX9" t="n">
+        <v>7656.4</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>7656.4</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>7656.4</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>7656.4</v>
+      </c>
+      <c r="CB9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="BA9">
+      <c r="CC9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="BB9">
+      <c r="CD9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CH9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="BC9">
+      <c r="CI9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="BD9">
+      <c r="CJ9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="CN9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="BE9">
+      <c r="CO9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="BF9">
+      <c r="CP9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="CT9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="BG9">
+      <c r="CU9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="BH9">
+      <c r="CV9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="CZ9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="BI9">
+      <c r="DA9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="BJ9">
+      <c r="DB9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="DF9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="BK9">
+      <c r="DG9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="BL9">
+      <c r="DH9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="DL9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="BM9">
+      <c r="DM9" t="n">
         <v>6301.5391187901</v>
       </c>
+      <c r="DN9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="DR9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:66">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Lubricants</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>550</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>362</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>609</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>612</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>475</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>440</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>454</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>478</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>544</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>566</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>590</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>592</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>605</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>617</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>664</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>700</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>755</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>791</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>847</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>926</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>890</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>932</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>846</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>688</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>688</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>960</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>1013</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>1081</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>1097</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>1243</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>1115</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>1140</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>1250</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>1430</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>1350</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>2080</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>1900</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>1900</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AR10" t="n">
         <v>2290</v>
       </c>
-      <c r="AO10">
+      <c r="AS10" t="n">
         <v>2290</v>
       </c>
-      <c r="AP10">
+      <c r="AT10" t="n">
+        <v>2290</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2290</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2290</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>2290</v>
+      </c>
+      <c r="AX10" t="n">
         <v>2000</v>
       </c>
-      <c r="AQ10">
+      <c r="AY10" t="n">
         <v>2000</v>
       </c>
-      <c r="AR10">
+      <c r="AZ10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BD10" t="n">
         <v>2540</v>
       </c>
-      <c r="AS10">
+      <c r="BE10" t="n">
         <v>2540</v>
       </c>
-      <c r="AT10">
+      <c r="BF10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BJ10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="AU10">
+      <c r="BK10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="AV10">
+      <c r="BL10" t="n">
+        <v>2429.2</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2429.2</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2429.2</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2429.2</v>
+      </c>
+      <c r="BP10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="AW10">
+      <c r="BQ10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="AX10">
+      <c r="BR10" t="n">
+        <v>2632.6</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2632.6</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>2632.6</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2632.6</v>
+      </c>
+      <c r="BV10" t="n">
         <v>3196</v>
       </c>
-      <c r="AY10">
+      <c r="BW10" t="n">
         <v>3196</v>
       </c>
-      <c r="AZ10">
+      <c r="BX10" t="n">
+        <v>3196</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>3196</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>3196</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>3196</v>
+      </c>
+      <c r="CB10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="BA10">
+      <c r="CC10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="BB10">
+      <c r="CD10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CH10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="BC10">
+      <c r="CI10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="BD10">
+      <c r="CJ10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="CN10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="BE10">
+      <c r="CO10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="BF10">
+      <c r="CP10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="CT10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="BG10">
+      <c r="CU10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="BH10">
+      <c r="CV10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="CZ10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="BI10">
+      <c r="DA10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="BJ10">
+      <c r="DB10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="DF10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="BK10">
+      <c r="DG10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="BL10">
+      <c r="DH10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="DL10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="BM10">
+      <c r="DM10" t="n">
         <v>3833.38778189226</v>
       </c>
+      <c r="DN10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="DR10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:66">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Bitumen</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>780</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1011</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1109</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1066</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>399</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>690</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>882</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>908</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>943</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>1069</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>1060</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>1292</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>1379</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>1050</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>935</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>1130</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>1309</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>1379</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>1498</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>1695</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>1580</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>1706</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>1823</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>1824</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>1939</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>2010</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>2273</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>2178</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>2412</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>2879</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>2774</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>2580</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>2990</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>3370</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>3340</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>3510</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>3830</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>3830</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
+        <v>3830</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3830</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>3830</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3830</v>
+      </c>
+      <c r="AR11" t="n">
         <v>4510</v>
       </c>
-      <c r="AO11">
+      <c r="AS11" t="n">
         <v>4510</v>
       </c>
-      <c r="AP11">
+      <c r="AT11" t="n">
+        <v>4510</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>4510</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>4510</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4510</v>
+      </c>
+      <c r="AX11" t="n">
         <v>4746.826793</v>
       </c>
-      <c r="AQ11">
+      <c r="AY11" t="n">
         <v>4746.826793</v>
       </c>
-      <c r="AR11">
+      <c r="AZ11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BD11" t="n">
         <v>4930</v>
       </c>
-      <c r="AS11">
+      <c r="BE11" t="n">
         <v>4930</v>
       </c>
-      <c r="AT11">
+      <c r="BF11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="BJ11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="AU11">
+      <c r="BK11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="AV11">
+      <c r="BL11" t="n">
+        <v>4535.599999999999</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4535.599999999999</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>4535.599999999999</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>4535.599999999999</v>
+      </c>
+      <c r="BP11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="AW11">
+      <c r="BQ11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="AX11">
+      <c r="BR11" t="n">
+        <v>4638.099999999999</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>4638.099999999999</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>4638.099999999999</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4638.099999999999</v>
+      </c>
+      <c r="BV11" t="n">
         <v>4676</v>
       </c>
-      <c r="AY11">
+      <c r="BW11" t="n">
         <v>4676</v>
       </c>
-      <c r="AZ11">
+      <c r="BX11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="CB11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="BA11">
+      <c r="CC11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="BB11">
+      <c r="CD11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CH11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="BC11">
+      <c r="CI11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="BD11">
+      <c r="CJ11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="CN11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="BE11">
+      <c r="CO11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="BF11">
+      <c r="CP11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="CT11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="BG11">
+      <c r="CU11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="BH11">
+      <c r="CV11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="BI11">
+      <c r="DA11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="BJ11">
+      <c r="DB11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="DF11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="BK11">
+      <c r="DG11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="BL11">
+      <c r="DH11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="DL11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="BM11">
+      <c r="DM11" t="n">
         <v>6720.36885</v>
       </c>
+      <c r="DN11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="DR11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:66">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Petroleum Coke</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>110</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>188</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>141</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>139</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>89</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>150</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>175</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>146</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>155</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>185</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>140</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>174</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>103</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>114</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>234</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>160</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>208</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>246</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>316</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>383</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>290</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>266</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>152</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>132</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>197</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>320</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>276</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>227</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>393</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>328</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>448</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>1800</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>2560</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>2880</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>3130</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>4930</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>5440</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>5440</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
+        <v>5440</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5440</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>5440</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>5440</v>
+      </c>
+      <c r="AR12" t="n">
         <v>5950</v>
       </c>
-      <c r="AO12">
+      <c r="AS12" t="n">
         <v>5950</v>
       </c>
-      <c r="AP12">
+      <c r="AT12" t="n">
+        <v>5950</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>5950</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>5950</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5950</v>
+      </c>
+      <c r="AX12" t="n">
         <v>6165.6</v>
       </c>
-      <c r="AQ12">
+      <c r="AY12" t="n">
         <v>6165.6</v>
       </c>
-      <c r="AR12">
+      <c r="AZ12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BD12" t="n">
         <v>6590</v>
       </c>
-      <c r="AS12">
+      <c r="BE12" t="n">
         <v>6590</v>
       </c>
-      <c r="AT12">
+      <c r="BF12" t="n">
+        <v>6590</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>6590</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>6590</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>6590</v>
+      </c>
+      <c r="BJ12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="AU12">
+      <c r="BK12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="AV12">
+      <c r="BL12" t="n">
+        <v>4982.400000000001</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>4982.400000000001</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>4982.400000000001</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>4982.400000000001</v>
+      </c>
+      <c r="BP12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="AW12">
+      <c r="BQ12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="AX12">
+      <c r="BR12" t="n">
+        <v>6137.7</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>6137.7</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>6137.7</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6137.7</v>
+      </c>
+      <c r="BV12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="AY12">
+      <c r="BW12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="AZ12">
+      <c r="BX12" t="n">
+        <v>10134.8</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>10134.8</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>10134.8</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>10134.8</v>
+      </c>
+      <c r="CB12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="BA12">
+      <c r="CC12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="BB12">
+      <c r="CD12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CH12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="BC12">
+      <c r="CI12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="BD12">
+      <c r="CJ12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="CN12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="BE12">
+      <c r="CO12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="BF12">
+      <c r="CP12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="CT12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="BG12">
+      <c r="CU12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="BH12">
+      <c r="CV12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="CZ12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="BI12">
+      <c r="DA12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="BJ12">
+      <c r="DB12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="DF12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="BK12">
+      <c r="DG12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="BL12">
+      <c r="DH12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="DL12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="BM12">
+      <c r="DM12" t="n">
         <v>21708.158825</v>
       </c>
+      <c r="DN12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="DR12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:66">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Refinery Fuel and Losses</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>1220</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>1228</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1262</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>1229</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>1197</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1230</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>1299</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>1451</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>1478</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>1440</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>1370</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>1584</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>1738</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>1935</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>2033</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>2490</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>2612</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>2522</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>2790</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>2684</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>2710</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>2629</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>2753</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>2836</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>3137</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>3240</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>3490</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>3514</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>3700</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>5544</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>6900</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>7270</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>7650</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>8240</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>8540</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>9140</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>10920</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>10920</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
+        <v>10920</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10920</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>10920</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>10920</v>
+      </c>
+      <c r="AR13" t="n">
         <v>11750</v>
       </c>
-      <c r="AO13">
+      <c r="AS13" t="n">
         <v>11750</v>
       </c>
-      <c r="AP13">
+      <c r="AT13" t="n">
+        <v>11750</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>11750</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>11750</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>11750</v>
+      </c>
+      <c r="AX13" t="n">
         <v>12359.338</v>
       </c>
-      <c r="AQ13">
+      <c r="AY13" t="n">
         <v>12359.338</v>
       </c>
-      <c r="AR13">
+      <c r="AZ13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BD13" t="n">
         <v>15120</v>
       </c>
-      <c r="AS13">
+      <c r="BE13" t="n">
         <v>15120</v>
       </c>
-      <c r="AT13">
+      <c r="BF13" t="n">
+        <v>15120</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>15120</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>15120</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>15120</v>
+      </c>
+      <c r="BJ13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="AU13">
+      <c r="BK13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="AV13">
+      <c r="BL13" t="n">
+        <v>16381.309</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>16381.309</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>16381.309</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>16381.309</v>
+      </c>
+      <c r="BP13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="AW13">
+      <c r="BQ13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="AX13">
+      <c r="BR13" t="n">
+        <v>17294.7196</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>17294.7196</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>17294.7196</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>17294.7196</v>
+      </c>
+      <c r="BV13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="AY13">
+      <c r="BW13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="AZ13">
+      <c r="BX13" t="n">
+        <v>18347.203</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>18347.203</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>18347.203</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>18347.203</v>
+      </c>
+      <c r="CB13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="BA13">
+      <c r="CC13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="BB13">
+      <c r="CD13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CH13" t="n">
         <v>17669</v>
       </c>
-      <c r="BC13">
+      <c r="CI13" t="n">
         <v>17669</v>
       </c>
-      <c r="BD13">
+      <c r="CJ13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="CN13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="BE13">
+      <c r="CO13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="BF13">
+      <c r="CP13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="CT13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="BG13">
+      <c r="CU13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="BH13">
+      <c r="CV13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="CZ13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="BI13">
+      <c r="DA13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="BJ13">
+      <c r="DB13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="DF13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="BK13">
+      <c r="DG13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="BL13">
+      <c r="DH13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="DL13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="BM13">
+      <c r="DM13" t="n">
         <v>23509.948</v>
       </c>
+      <c r="DN13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="DR13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:66">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Other Pertroleum Products</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>390</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>650</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>525</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>552</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>463</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>460</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>511</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>521</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>549</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>586</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>560</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>538</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>549</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>632</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>667</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>670</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>679</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>721</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>921</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>956</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>1140</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>1106</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>1228</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>1151</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>3328</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>2050</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>2298</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>2259</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>1550</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>2150</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>4869</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>4640</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>5360</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>6650</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>4460</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>4660</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>5830</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>5830</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
+        <v>5830</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5830</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>5830</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>5830</v>
+      </c>
+      <c r="AR14" t="n">
         <v>5450</v>
       </c>
-      <c r="AO14">
+      <c r="AS14" t="n">
         <v>5450</v>
       </c>
-      <c r="AP14">
+      <c r="AT14" t="n">
+        <v>5450</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>5450</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>5450</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5450</v>
+      </c>
+      <c r="AX14" t="n">
         <v>4749.97148</v>
       </c>
-      <c r="AQ14">
+      <c r="AY14" t="n">
         <v>4749.97148</v>
       </c>
-      <c r="AR14">
+      <c r="AZ14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BD14" t="n">
         <v>5400</v>
       </c>
-      <c r="AS14">
+      <c r="BE14" t="n">
         <v>5400</v>
       </c>
-      <c r="AT14">
+      <c r="BF14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BJ14" t="n">
         <v>4570</v>
       </c>
-      <c r="AU14">
+      <c r="BK14" t="n">
         <v>4570</v>
       </c>
-      <c r="AV14">
+      <c r="BL14" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BP14" t="n">
         <v>4920</v>
       </c>
-      <c r="AW14">
+      <c r="BQ14" t="n">
         <v>4920</v>
       </c>
-      <c r="AX14">
+      <c r="BR14" t="n">
+        <v>4920</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4920</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>4920</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4920</v>
+      </c>
+      <c r="BV14" t="n">
         <v>5510</v>
       </c>
-      <c r="AY14">
+      <c r="BW14" t="n">
         <v>5510</v>
       </c>
-      <c r="AZ14">
+      <c r="BX14" t="n">
+        <v>5510</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>5510</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>5510</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>5510</v>
+      </c>
+      <c r="CB14" t="n">
         <v>5960</v>
       </c>
-      <c r="BA14">
+      <c r="CC14" t="n">
         <v>5960</v>
       </c>
-      <c r="BB14">
+      <c r="CD14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CH14" t="n">
         <v>5870</v>
       </c>
-      <c r="BC14">
+      <c r="CI14" t="n">
         <v>5870</v>
       </c>
-      <c r="BD14">
+      <c r="CJ14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="CN14" t="n">
         <v>6350</v>
       </c>
-      <c r="BE14">
+      <c r="CO14" t="n">
         <v>6350</v>
       </c>
-      <c r="BF14">
+      <c r="CP14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="CT14" t="n">
         <v>6590</v>
       </c>
-      <c r="BG14">
+      <c r="CU14" t="n">
         <v>6590</v>
       </c>
-      <c r="BH14">
+      <c r="CV14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>8340</v>
       </c>
-      <c r="BI14">
+      <c r="DA14" t="n">
         <v>8340</v>
       </c>
-      <c r="BJ14">
+      <c r="DB14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="DF14" t="n">
         <v>11720</v>
       </c>
-      <c r="BK14">
+      <c r="DG14" t="n">
         <v>11720</v>
       </c>
-      <c r="BL14">
+      <c r="DH14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="DL14" t="n">
         <v>11360</v>
       </c>
-      <c r="BM14">
+      <c r="DM14" t="n">
         <v>11360</v>
       </c>
+      <c r="DN14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="DR14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:66">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Total including Refinery Fuel</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>19140</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>21299</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>22978</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>23574</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>23302</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>23670</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>25400</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>26990</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>29719</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>31323</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>32260</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>34107</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>36395</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>37776</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>40828</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>43360</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>46274</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>48938</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>52882</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>56779</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>57750</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>59603</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>61655</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>63648</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>70650</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>78070</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>82658</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>87804</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>94262</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>102630</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>106974</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>107710</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>111780</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>115990</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="n">
         <v>120170</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="n">
         <v>122360</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="n">
         <v>131670</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" t="n">
         <v>131670</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" t="n">
+        <v>131670</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>131670</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>131670</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>131670</v>
+      </c>
+      <c r="AR15" t="n">
         <v>140700</v>
       </c>
-      <c r="AO15">
+      <c r="AS15" t="n">
         <v>140700</v>
       </c>
-      <c r="AP15">
+      <c r="AT15" t="n">
+        <v>140700</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>140700</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>140700</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>140700</v>
+      </c>
+      <c r="AX15" t="n">
         <v>145958.090937</v>
       </c>
-      <c r="AQ15">
+      <c r="AY15" t="n">
         <v>145958.090937</v>
       </c>
-      <c r="AR15">
+      <c r="AZ15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BD15" t="n">
         <v>152920</v>
       </c>
-      <c r="AS15">
+      <c r="BE15" t="n">
         <v>152920</v>
       </c>
-      <c r="AT15">
+      <c r="BF15" t="n">
+        <v>152920</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>152920</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>152920</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>152920</v>
+      </c>
+      <c r="BJ15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="AU15">
+      <c r="BK15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="AV15">
+      <c r="BL15" t="n">
+        <v>157422.409</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>157422.409</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>157422.409</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>157422.409</v>
+      </c>
+      <c r="BP15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="AW15">
+      <c r="BQ15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="AX15">
+      <c r="BR15" t="n">
+        <v>165422.9196</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>165422.9196</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>165422.9196</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>165422.9196</v>
+      </c>
+      <c r="BV15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="AY15">
+      <c r="BW15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="AZ15">
+      <c r="BX15" t="n">
+        <v>175404.803</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>175404.803</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>175404.803</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>175404.803</v>
+      </c>
+      <c r="CB15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="BA15">
+      <c r="CC15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="BB15">
+      <c r="CD15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CH15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="BC15">
+      <c r="CI15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="BD15">
+      <c r="CJ15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="CN15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="BE15">
+      <c r="CO15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="BF15">
+      <c r="CP15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="CT15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="BG15">
+      <c r="CU15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="BH15">
+      <c r="CV15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="CZ15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="BI15">
+      <c r="DA15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="BJ15">
+      <c r="DB15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="DF15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="BK15">
+      <c r="DG15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="BL15">
+      <c r="DH15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="DL15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="BM15">
+      <c r="DM15" t="n">
         <v>237636.574449784</v>
       </c>
+      <c r="DN15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="DR15" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR15"/>
+  <dimension ref="A1:ET15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,400 +579,540 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1111,10 +1251,10 @@
         <v>10850</v>
       </c>
       <c r="AR2" t="n">
-        <v>12170</v>
+        <v>10850</v>
       </c>
       <c r="AS2" t="n">
-        <v>12170</v>
+        <v>10850</v>
       </c>
       <c r="AT2" t="n">
         <v>12170</v>
@@ -1129,16 +1269,16 @@
         <v>12170</v>
       </c>
       <c r="AX2" t="n">
-        <v>12191.117884</v>
+        <v>12170</v>
       </c>
       <c r="AY2" t="n">
-        <v>12191.117884</v>
+        <v>12170</v>
       </c>
       <c r="AZ2" t="n">
-        <v>12191.117884</v>
+        <v>12170</v>
       </c>
       <c r="BA2" t="n">
-        <v>12191.117884</v>
+        <v>12170</v>
       </c>
       <c r="BB2" t="n">
         <v>12191.117884</v>
@@ -1147,204 +1287,288 @@
         <v>12191.117884</v>
       </c>
       <c r="BD2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>12191.117884</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>13140</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BK2" t="n">
         <v>13140</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BL2" t="n">
         <v>13140</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BM2" t="n">
         <v>13140</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BN2" t="n">
         <v>13140</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BO2" t="n">
         <v>13140</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BP2" t="n">
+        <v>13140</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>13140</v>
+      </c>
+      <c r="BR2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BS2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BT2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BU2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BV2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BW2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BX2" t="n">
+        <v>14331.4</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>14331.4</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CA2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CB2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CC2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CD2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CE2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CF2" t="n">
+        <v>15349.7</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>15349.7</v>
+      </c>
+      <c r="CH2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CI2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CJ2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CK2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CL2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CM2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CN2" t="n">
+        <v>15600.7</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>15600.7</v>
+      </c>
+      <c r="CP2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CQ2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CR2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CS2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CT2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CU2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CV2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CX2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CY2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CZ2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DA2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DB2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DC2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DD2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="DF2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DG2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DH2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DI2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DJ2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DK2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DL2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="DN2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DO2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DP2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DQ2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DR2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DS2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DT2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="DV2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DW2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DX2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DY2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DZ2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EA2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EB2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="ED2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EE2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EF2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EG2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EH2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EI2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="EJ2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="EL2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="EM2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="EN2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="EO2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="EP2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EQ2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="DR2" t="inlineStr"/>
+      <c r="ER2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="ET2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1479,10 +1703,10 @@
         <v>9290</v>
       </c>
       <c r="AR3" t="n">
-        <v>10330</v>
+        <v>9290</v>
       </c>
       <c r="AS3" t="n">
-        <v>10330</v>
+        <v>9290</v>
       </c>
       <c r="AT3" t="n">
         <v>10330</v>
@@ -1497,16 +1721,16 @@
         <v>10330</v>
       </c>
       <c r="AX3" t="n">
-        <v>11257.772</v>
+        <v>10330</v>
       </c>
       <c r="AY3" t="n">
-        <v>11257.772</v>
+        <v>10330</v>
       </c>
       <c r="AZ3" t="n">
-        <v>11257.772</v>
+        <v>10330</v>
       </c>
       <c r="BA3" t="n">
-        <v>11257.772</v>
+        <v>10330</v>
       </c>
       <c r="BB3" t="n">
         <v>11257.772</v>
@@ -1515,204 +1739,288 @@
         <v>11257.772</v>
       </c>
       <c r="BD3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>11257.772</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>12820</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BK3" t="n">
         <v>12820</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BL3" t="n">
         <v>12820</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BM3" t="n">
         <v>12820</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BN3" t="n">
         <v>12820</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BO3" t="n">
         <v>12820</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BP3" t="n">
+        <v>12820</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>12820</v>
+      </c>
+      <c r="BR3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BS3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BT3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BU3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BV3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BW3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BX3" t="n">
+        <v>14194.4</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>14194.4</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="CA3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="CB3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CC3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CD3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CE3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CF3" t="n">
+        <v>14992.4</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>14992.4</v>
+      </c>
+      <c r="CH3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CI3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CJ3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CK3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CL3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CM3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CN3" t="n">
+        <v>15743.9</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>15743.9</v>
+      </c>
+      <c r="CP3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CQ3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CR3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CS3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CT3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CU3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CV3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CX3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CY3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CZ3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="DA3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="DB3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="DC3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="DD3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="DF3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="DG3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="DH3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="DI3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DJ3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="DK3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="DL3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="DN3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DO3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="DP3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="DQ3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="DR3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="DS3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DT3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="DV3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DW3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DX3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DY3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DZ3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="EA3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="EB3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="ED3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="EE3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="EF3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="EG3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="EH3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="EI3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="EJ3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="EL3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="EM3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="EN3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="EO3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="EP3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="EQ3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="DR3" t="inlineStr"/>
+      <c r="ER3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="ET3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1847,10 +2155,10 @@
         <v>13890</v>
       </c>
       <c r="AR4" t="n">
-        <v>13290</v>
+        <v>13890</v>
       </c>
       <c r="AS4" t="n">
-        <v>13290</v>
+        <v>13890</v>
       </c>
       <c r="AT4" t="n">
         <v>13290</v>
@@ -1865,16 +2173,16 @@
         <v>13290</v>
       </c>
       <c r="AX4" t="n">
-        <v>13910.7253</v>
+        <v>13290</v>
       </c>
       <c r="AY4" t="n">
-        <v>13910.7253</v>
+        <v>13290</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13910.7253</v>
+        <v>13290</v>
       </c>
       <c r="BA4" t="n">
-        <v>13910.7253</v>
+        <v>13290</v>
       </c>
       <c r="BB4" t="n">
         <v>13910.7253</v>
@@ -1883,204 +2191,288 @@
         <v>13910.7253</v>
       </c>
       <c r="BD4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>13910.7253</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>10130</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BK4" t="n">
         <v>10130</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BL4" t="n">
         <v>10130</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BM4" t="n">
         <v>10130</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BN4" t="n">
         <v>10130</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BO4" t="n">
         <v>10130</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BP4" t="n">
+        <v>10130</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>10130</v>
+      </c>
+      <c r="BR4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BS4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BT4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BU4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BV4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BW4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BX4" t="n">
+        <v>10676.3</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>10676.3</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="CA4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="CB4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="CC4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="CD4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CE4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CF4" t="n">
+        <v>11221.5</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>11221.5</v>
+      </c>
+      <c r="CH4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CI4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CJ4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CK4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CL4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CM4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CN4" t="n">
+        <v>12289.4</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>12289.4</v>
+      </c>
+      <c r="CP4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CQ4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CR4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CS4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CT4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CU4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CV4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CX4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CY4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CZ4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DA4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DB4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="DC4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="DD4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="DF4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="DG4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="DH4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="DI4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="DJ4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="DK4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="DL4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="DN4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DO4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="DP4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="DQ4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="DR4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="DS4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DT4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="DV4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DW4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DX4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DY4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DZ4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="EA4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="EB4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="ED4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="EE4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="EF4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="EG4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="EH4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="EI4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="EJ4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="EL4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="EM4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="EN4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="EO4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="EP4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="EQ4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="DR4" t="inlineStr"/>
+      <c r="ER4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="ET4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2215,10 +2607,10 @@
         <v>9510</v>
       </c>
       <c r="AR5" t="n">
-        <v>9370</v>
+        <v>9510</v>
       </c>
       <c r="AS5" t="n">
-        <v>9370</v>
+        <v>9510</v>
       </c>
       <c r="AT5" t="n">
         <v>9370</v>
@@ -2233,16 +2625,16 @@
         <v>9370</v>
       </c>
       <c r="AX5" t="n">
-        <v>9302.868999999999</v>
+        <v>9370</v>
       </c>
       <c r="AY5" t="n">
-        <v>9302.868999999999</v>
+        <v>9370</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9302.868999999999</v>
+        <v>9370</v>
       </c>
       <c r="BA5" t="n">
-        <v>9302.868999999999</v>
+        <v>9370</v>
       </c>
       <c r="BB5" t="n">
         <v>9302.868999999999</v>
@@ -2251,204 +2643,288 @@
         <v>9302.868999999999</v>
       </c>
       <c r="BD5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>9302.868999999999</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>9300</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BK5" t="n">
         <v>9300</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BL5" t="n">
         <v>9300</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BM5" t="n">
         <v>9300</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BN5" t="n">
         <v>9300</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BO5" t="n">
         <v>9300</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BP5" t="n">
+        <v>9300</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>9300</v>
+      </c>
+      <c r="BR5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BS5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BT5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BU5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BV5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BW5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BX5" t="n">
+        <v>8927.799999999999</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>8927.799999999999</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="CA5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="CB5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CC5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CD5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CE5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CF5" t="n">
+        <v>8228.700000000001</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>8228.700000000001</v>
+      </c>
+      <c r="CH5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CI5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CJ5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CK5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CL5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CM5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CN5" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>7501.5</v>
+      </c>
+      <c r="CP5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CQ5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CR5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CS5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CT5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CU5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CV5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CX5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CY5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CZ5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DA5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DB5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="DC5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="DD5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="DF5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="DG5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="DH5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="DI5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="DJ5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="DK5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="DL5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="DN5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="DO5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="DP5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="DQ5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="DR5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="DS5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DT5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="DV5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DW5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DX5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DY5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DZ5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="EA5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="EB5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="ED5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="EE5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="EF5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="EG5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="EH5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="EI5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="EJ5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="EL5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="EM5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="EN5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="EO5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="EP5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="EQ5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="DR5" t="inlineStr"/>
+      <c r="ER5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="ET5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2583,10 +3059,10 @@
         <v>3980</v>
       </c>
       <c r="AR6" t="n">
-        <v>4540</v>
+        <v>3980</v>
       </c>
       <c r="AS6" t="n">
-        <v>4540</v>
+        <v>3980</v>
       </c>
       <c r="AT6" t="n">
         <v>4540</v>
@@ -2601,16 +3077,16 @@
         <v>4540</v>
       </c>
       <c r="AX6" t="n">
-        <v>4423.20055</v>
+        <v>4540</v>
       </c>
       <c r="AY6" t="n">
-        <v>4423.20055</v>
+        <v>4540</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4423.20055</v>
+        <v>4540</v>
       </c>
       <c r="BA6" t="n">
-        <v>4423.20055</v>
+        <v>4540</v>
       </c>
       <c r="BB6" t="n">
         <v>4423.20055</v>
@@ -2619,204 +3095,288 @@
         <v>4423.20055</v>
       </c>
       <c r="BD6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>4423.20055</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>4630</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BK6" t="n">
         <v>4630</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BL6" t="n">
         <v>4630</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BM6" t="n">
         <v>4630</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BN6" t="n">
         <v>4630</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BO6" t="n">
         <v>4630</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BP6" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BR6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BS6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BT6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BU6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BV6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BW6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BX6" t="n">
+        <v>5078.400000000001</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>5078.400000000001</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="CA6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="CB6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CC6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CD6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CE6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CF6" t="n">
+        <v>5536.1</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>5536.1</v>
+      </c>
+      <c r="CH6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CI6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CJ6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CK6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CL6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CM6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CN6" t="n">
+        <v>5270.5</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>5270.5</v>
+      </c>
+      <c r="CP6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CQ6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CR6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CS6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CT6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CU6" t="n">
         <v>5504.586899999999</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CV6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CX6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CY6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CZ6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="DA6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="DB6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="DC6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="DD6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="DF6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="DG6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="DH6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="DI6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="DJ6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="DK6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="DL6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="DN6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="DO6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="DP6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="DQ6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="DR6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="DS6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DT6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="DV6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DW6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DX6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DY6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DZ6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="EA6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="EB6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="ED6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="EE6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="EF6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="EG6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="EH6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="EI6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="EJ6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="EL6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="EM6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="EN6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="EO6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="EP6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="EQ6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="DR6" t="inlineStr"/>
+      <c r="ER6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="ET6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2951,10 +3511,10 @@
         <v>42900</v>
       </c>
       <c r="AR7" t="n">
-        <v>47670</v>
+        <v>42900</v>
       </c>
       <c r="AS7" t="n">
-        <v>47670</v>
+        <v>42900</v>
       </c>
       <c r="AT7" t="n">
         <v>47670</v>
@@ -2969,16 +3529,16 @@
         <v>47670</v>
       </c>
       <c r="AX7" t="n">
-        <v>51710.357</v>
+        <v>47670</v>
       </c>
       <c r="AY7" t="n">
-        <v>51710.357</v>
+        <v>47670</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51710.357</v>
+        <v>47670</v>
       </c>
       <c r="BA7" t="n">
-        <v>51710.357</v>
+        <v>47670</v>
       </c>
       <c r="BB7" t="n">
         <v>51710.357</v>
@@ -2987,204 +3547,288 @@
         <v>51710.357</v>
       </c>
       <c r="BD7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>51710.357</v>
+      </c>
+      <c r="BJ7" t="n">
         <v>56240</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BK7" t="n">
         <v>56240</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BL7" t="n">
         <v>56240</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BM7" t="n">
         <v>56240</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BN7" t="n">
         <v>56240</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BO7" t="n">
         <v>56240</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BP7" t="n">
+        <v>56240</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>56240</v>
+      </c>
+      <c r="BR7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BS7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BT7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BU7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BV7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BW7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BX7" t="n">
+        <v>60071.1</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>60071.1</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>64750</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="CA7" t="n">
         <v>64750</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="CB7" t="n">
         <v>64750</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="CC7" t="n">
         <v>64750</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="CD7" t="n">
         <v>64750</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CE7" t="n">
         <v>64750</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CF7" t="n">
+        <v>64750</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>64750</v>
+      </c>
+      <c r="CH7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CI7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CJ7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CK7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CL7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CM7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CN7" t="n">
+        <v>69079.89999999999</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>69079.89999999999</v>
+      </c>
+      <c r="CP7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CQ7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CR7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CS7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CT7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CU7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CV7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CX7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CY7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CZ7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="DA7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="DB7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="DC7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="DD7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="DF7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="DG7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="DH7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="DI7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="DJ7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="DK7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="DL7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="DN7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="DO7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="DP7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="DQ7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="DR7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="DS7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DT7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="DV7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DW7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DX7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DY7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DZ7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="EA7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="EB7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="ED7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="EE7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="EF7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="EG7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="EH7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="EI7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="EJ7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="EL7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="EM7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="EN7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="EO7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="EP7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="EQ7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="DR7" t="inlineStr"/>
+      <c r="ER7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="ET7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3319,10 +3963,10 @@
         <v>720</v>
       </c>
       <c r="AR8" t="n">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="AS8" t="n">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="AT8" t="n">
         <v>670</v>
@@ -3337,16 +3981,16 @@
         <v>670</v>
       </c>
       <c r="AX8" t="n">
-        <v>552.2569999999999</v>
+        <v>670</v>
       </c>
       <c r="AY8" t="n">
-        <v>552.2569999999999</v>
+        <v>670</v>
       </c>
       <c r="AZ8" t="n">
-        <v>552.2569999999999</v>
+        <v>670</v>
       </c>
       <c r="BA8" t="n">
-        <v>552.2569999999999</v>
+        <v>670</v>
       </c>
       <c r="BB8" t="n">
         <v>552.2569999999999</v>
@@ -3355,204 +3999,288 @@
         <v>552.2569999999999</v>
       </c>
       <c r="BD8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>552.2569999999999</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>460</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BK8" t="n">
         <v>460</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BL8" t="n">
         <v>460</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BM8" t="n">
         <v>460</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BN8" t="n">
         <v>460</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BO8" t="n">
         <v>460</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BP8" t="n">
+        <v>460</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>460</v>
+      </c>
+      <c r="BR8" t="n">
         <v>455.3</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BS8" t="n">
         <v>455.3</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BT8" t="n">
         <v>455.3</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BU8" t="n">
         <v>455.3</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BV8" t="n">
         <v>455.3</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BW8" t="n">
         <v>455.3</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BX8" t="n">
+        <v>455.3</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>455.3</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>414.8</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="CA8" t="n">
         <v>414.8</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="CB8" t="n">
         <v>414.8</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="CC8" t="n">
         <v>414.8</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="CD8" t="n">
         <v>414.8</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="CE8" t="n">
         <v>414.8</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="CF8" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>414.8</v>
+      </c>
+      <c r="CH8" t="n">
         <v>398.5</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="CI8" t="n">
         <v>398.5</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="CJ8" t="n">
         <v>398.5</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="CK8" t="n">
         <v>398.5</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CL8" t="n">
         <v>398.5</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CM8" t="n">
         <v>398.5</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CN8" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="CP8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CQ8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CR8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CS8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CT8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CU8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CV8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CX8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CY8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CZ8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="DA8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="DB8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="DC8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="DD8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="DF8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="DG8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="DH8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="DI8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="DJ8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="DK8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="DL8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="DN8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="DO8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="DP8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="DQ8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="DR8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="DS8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DT8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="DV8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DW8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DX8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DY8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DZ8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="EA8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="EB8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="ED8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="EE8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="EF8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="EG8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="EH8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="EI8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="EJ8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="EL8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="EM8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="EN8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="EO8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="EP8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="EQ8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="DR8" t="inlineStr"/>
+      <c r="ER8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="ET8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3687,10 +4415,10 @@
         <v>12620</v>
       </c>
       <c r="AR9" t="n">
-        <v>12720</v>
+        <v>12620</v>
       </c>
       <c r="AS9" t="n">
-        <v>12720</v>
+        <v>12620</v>
       </c>
       <c r="AT9" t="n">
         <v>12720</v>
@@ -3705,16 +4433,16 @@
         <v>12720</v>
       </c>
       <c r="AX9" t="n">
-        <v>12588.05593</v>
+        <v>12720</v>
       </c>
       <c r="AY9" t="n">
-        <v>12588.05593</v>
+        <v>12720</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12588.05593</v>
+        <v>12720</v>
       </c>
       <c r="BA9" t="n">
-        <v>12588.05593</v>
+        <v>12720</v>
       </c>
       <c r="BB9" t="n">
         <v>12588.05593</v>
@@ -3723,204 +4451,288 @@
         <v>12588.05593</v>
       </c>
       <c r="BD9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>12588.05593</v>
+      </c>
+      <c r="BJ9" t="n">
         <v>11630</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BK9" t="n">
         <v>11630</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BL9" t="n">
         <v>11630</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BM9" t="n">
         <v>11630</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BN9" t="n">
         <v>11630</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BO9" t="n">
         <v>11630</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BP9" t="n">
+        <v>11630</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>11630</v>
+      </c>
+      <c r="BR9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BS9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BT9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BU9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BV9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BW9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BX9" t="n">
+        <v>10789.2</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>10789.2</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="CA9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="CB9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CC9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CD9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="CE9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="CF9" t="n">
+        <v>9306.6</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>9306.6</v>
+      </c>
+      <c r="CH9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CI9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CJ9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="CK9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CL9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CM9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CN9" t="n">
+        <v>7656.4</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>7656.4</v>
+      </c>
+      <c r="CP9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CQ9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CR9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CS9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CT9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CU9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CV9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CX9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CY9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CZ9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="DA9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="DB9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="DC9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="DD9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="DF9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="DG9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="DH9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="DI9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="DJ9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="DK9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="DL9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="DN9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="DO9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="DP9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="DQ9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="DR9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="DS9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DT9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="DV9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DW9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DX9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DY9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DZ9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="EA9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="EB9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="ED9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="EE9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="EF9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="EG9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="EH9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="EI9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="EJ9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="EL9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="EM9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="EN9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="EO9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="EP9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="EQ9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="DR9" t="inlineStr"/>
+      <c r="ER9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="ET9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4055,10 +4867,10 @@
         <v>1900</v>
       </c>
       <c r="AR10" t="n">
-        <v>2290</v>
+        <v>1900</v>
       </c>
       <c r="AS10" t="n">
-        <v>2290</v>
+        <v>1900</v>
       </c>
       <c r="AT10" t="n">
         <v>2290</v>
@@ -4073,16 +4885,16 @@
         <v>2290</v>
       </c>
       <c r="AX10" t="n">
-        <v>2000</v>
+        <v>2290</v>
       </c>
       <c r="AY10" t="n">
-        <v>2000</v>
+        <v>2290</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2000</v>
+        <v>2290</v>
       </c>
       <c r="BA10" t="n">
-        <v>2000</v>
+        <v>2290</v>
       </c>
       <c r="BB10" t="n">
         <v>2000</v>
@@ -4091,204 +4903,288 @@
         <v>2000</v>
       </c>
       <c r="BD10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BJ10" t="n">
         <v>2540</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BK10" t="n">
         <v>2540</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BL10" t="n">
         <v>2540</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BM10" t="n">
         <v>2540</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BN10" t="n">
         <v>2540</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BO10" t="n">
         <v>2540</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BP10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="BR10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BS10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BT10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BU10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BV10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BW10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BX10" t="n">
+        <v>2429.2</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>2429.2</v>
+      </c>
+      <c r="BZ10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="CA10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="CB10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="CC10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="CD10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CE10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CF10" t="n">
+        <v>2632.6</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>2632.6</v>
+      </c>
+      <c r="CH10" t="n">
         <v>3196</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CI10" t="n">
         <v>3196</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CJ10" t="n">
         <v>3196</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CK10" t="n">
         <v>3196</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CL10" t="n">
         <v>3196</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CM10" t="n">
         <v>3196</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CN10" t="n">
+        <v>3196</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>3196</v>
+      </c>
+      <c r="CP10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CQ10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CR10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CS10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CT10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CU10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CV10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CX10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CY10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CZ10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="DA10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="DB10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="DC10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="DD10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="DF10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="DG10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="DH10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="DI10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="DJ10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="DK10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="DL10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="DN10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="DO10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="DP10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="DQ10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="DR10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="DS10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="DT10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="DV10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DW10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DX10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DY10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DZ10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="EA10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="EB10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="ED10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="EE10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="EF10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="EG10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="EH10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="EI10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="EJ10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="EL10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="EM10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="EN10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="EO10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="EP10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="EQ10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="DR10" t="inlineStr"/>
+      <c r="ER10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="ET10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4423,10 +5319,10 @@
         <v>3830</v>
       </c>
       <c r="AR11" t="n">
-        <v>4510</v>
+        <v>3830</v>
       </c>
       <c r="AS11" t="n">
-        <v>4510</v>
+        <v>3830</v>
       </c>
       <c r="AT11" t="n">
         <v>4510</v>
@@ -4441,16 +5337,16 @@
         <v>4510</v>
       </c>
       <c r="AX11" t="n">
-        <v>4746.826793</v>
+        <v>4510</v>
       </c>
       <c r="AY11" t="n">
-        <v>4746.826793</v>
+        <v>4510</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4746.826793</v>
+        <v>4510</v>
       </c>
       <c r="BA11" t="n">
-        <v>4746.826793</v>
+        <v>4510</v>
       </c>
       <c r="BB11" t="n">
         <v>4746.826793</v>
@@ -4459,204 +5355,288 @@
         <v>4746.826793</v>
       </c>
       <c r="BD11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4746.826793</v>
+      </c>
+      <c r="BJ11" t="n">
         <v>4930</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BK11" t="n">
         <v>4930</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BL11" t="n">
         <v>4930</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BM11" t="n">
         <v>4930</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BN11" t="n">
         <v>4930</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BO11" t="n">
         <v>4930</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BP11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="BR11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BS11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BT11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BU11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BV11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BW11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BX11" t="n">
+        <v>4535.599999999999</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4535.599999999999</v>
+      </c>
+      <c r="BZ11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="CA11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="CB11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="CC11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="CD11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="CE11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="CF11" t="n">
+        <v>4638.099999999999</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>4638.099999999999</v>
+      </c>
+      <c r="CH11" t="n">
         <v>4676</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="CI11" t="n">
         <v>4676</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="CJ11" t="n">
         <v>4676</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="CK11" t="n">
         <v>4676</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="CL11" t="n">
         <v>4676</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CM11" t="n">
         <v>4676</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CN11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="CP11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CQ11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CR11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CS11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CT11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CU11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CV11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CX11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CY11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CZ11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="DA11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="DB11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="DC11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="DD11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="DF11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="DG11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="CP11" t="n">
+      <c r="DH11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="DI11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="CR11" t="n">
+      <c r="DJ11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="DK11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="DL11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="DN11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="DO11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="CV11" t="n">
+      <c r="DP11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="CW11" t="n">
+      <c r="DQ11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="CX11" t="n">
+      <c r="DR11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="DS11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="DT11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="DV11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DW11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DX11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DY11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DZ11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="EA11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="EB11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="ED11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="EE11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="EF11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="EG11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="EH11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="EI11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="EJ11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="EL11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="EM11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="EN11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="EO11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="EP11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="EQ11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="DR11" t="inlineStr"/>
+      <c r="ER11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="ET11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4791,10 +5771,10 @@
         <v>5440</v>
       </c>
       <c r="AR12" t="n">
-        <v>5950</v>
+        <v>5440</v>
       </c>
       <c r="AS12" t="n">
-        <v>5950</v>
+        <v>5440</v>
       </c>
       <c r="AT12" t="n">
         <v>5950</v>
@@ -4809,16 +5789,16 @@
         <v>5950</v>
       </c>
       <c r="AX12" t="n">
-        <v>6165.6</v>
+        <v>5950</v>
       </c>
       <c r="AY12" t="n">
-        <v>6165.6</v>
+        <v>5950</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6165.6</v>
+        <v>5950</v>
       </c>
       <c r="BA12" t="n">
-        <v>6165.6</v>
+        <v>5950</v>
       </c>
       <c r="BB12" t="n">
         <v>6165.6</v>
@@ -4827,204 +5807,288 @@
         <v>6165.6</v>
       </c>
       <c r="BD12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="BJ12" t="n">
         <v>6590</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BK12" t="n">
         <v>6590</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BL12" t="n">
         <v>6590</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BM12" t="n">
         <v>6590</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BN12" t="n">
         <v>6590</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BO12" t="n">
         <v>6590</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BP12" t="n">
+        <v>6590</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>6590</v>
+      </c>
+      <c r="BR12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BS12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BT12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BU12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BV12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BW12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BX12" t="n">
+        <v>4982.400000000001</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>4982.400000000001</v>
+      </c>
+      <c r="BZ12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="CA12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="CB12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="CC12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="CD12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="CE12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="CF12" t="n">
+        <v>6137.7</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>6137.7</v>
+      </c>
+      <c r="CH12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="CI12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="CJ12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="CK12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="CL12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CM12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CN12" t="n">
+        <v>10134.8</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>10134.8</v>
+      </c>
+      <c r="CP12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="CQ12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CR12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CS12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="CF12" t="n">
+      <c r="CT12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="CG12" t="n">
+      <c r="CU12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="CH12" t="n">
+      <c r="CV12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CX12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CI12" t="n">
+      <c r="CY12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CJ12" t="n">
+      <c r="CZ12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CK12" t="n">
+      <c r="DA12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CL12" t="n">
+      <c r="DB12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CM12" t="n">
+      <c r="DC12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CN12" t="n">
+      <c r="DD12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="DF12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="DG12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="CP12" t="n">
+      <c r="DH12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="CQ12" t="n">
+      <c r="DI12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="CR12" t="n">
+      <c r="DJ12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="CS12" t="n">
+      <c r="DK12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="CT12" t="n">
+      <c r="DL12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="DN12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="CU12" t="n">
+      <c r="DO12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="CV12" t="n">
+      <c r="DP12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="CW12" t="n">
+      <c r="DQ12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="CX12" t="n">
+      <c r="DR12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="CY12" t="n">
+      <c r="DS12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="CZ12" t="n">
+      <c r="DT12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="DV12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DA12" t="n">
+      <c r="DW12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DB12" t="n">
+      <c r="DX12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DC12" t="n">
+      <c r="DY12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DD12" t="n">
+      <c r="DZ12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DE12" t="n">
+      <c r="EA12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DF12" t="n">
+      <c r="EB12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="ED12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="DG12" t="n">
+      <c r="EE12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="EF12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="DI12" t="n">
+      <c r="EG12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="DJ12" t="n">
+      <c r="EH12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="EI12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="EJ12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="EL12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="EM12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="EN12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="EO12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="EP12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="EQ12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="DR12" t="inlineStr"/>
+      <c r="ER12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="ET12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5159,10 +6223,10 @@
         <v>10920</v>
       </c>
       <c r="AR13" t="n">
-        <v>11750</v>
+        <v>10920</v>
       </c>
       <c r="AS13" t="n">
-        <v>11750</v>
+        <v>10920</v>
       </c>
       <c r="AT13" t="n">
         <v>11750</v>
@@ -5177,16 +6241,16 @@
         <v>11750</v>
       </c>
       <c r="AX13" t="n">
-        <v>12359.338</v>
+        <v>11750</v>
       </c>
       <c r="AY13" t="n">
-        <v>12359.338</v>
+        <v>11750</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12359.338</v>
+        <v>11750</v>
       </c>
       <c r="BA13" t="n">
-        <v>12359.338</v>
+        <v>11750</v>
       </c>
       <c r="BB13" t="n">
         <v>12359.338</v>
@@ -5195,204 +6259,288 @@
         <v>12359.338</v>
       </c>
       <c r="BD13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>12359.338</v>
+      </c>
+      <c r="BJ13" t="n">
         <v>15120</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BK13" t="n">
         <v>15120</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BL13" t="n">
         <v>15120</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BM13" t="n">
         <v>15120</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BN13" t="n">
         <v>15120</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BO13" t="n">
         <v>15120</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BP13" t="n">
+        <v>15120</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>15120</v>
+      </c>
+      <c r="BR13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BS13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BT13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BU13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BV13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BW13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BX13" t="n">
+        <v>16381.309</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>16381.309</v>
+      </c>
+      <c r="BZ13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="CA13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="CB13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="CC13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="CD13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="CE13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="CF13" t="n">
+        <v>17294.7196</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>17294.7196</v>
+      </c>
+      <c r="CH13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="CI13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="CJ13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="CK13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="CL13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CM13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CN13" t="n">
+        <v>18347.203</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>18347.203</v>
+      </c>
+      <c r="CP13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CQ13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CR13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CS13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CT13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CU13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="CH13" t="n">
+      <c r="CV13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CX13" t="n">
         <v>17669</v>
       </c>
-      <c r="CI13" t="n">
+      <c r="CY13" t="n">
         <v>17669</v>
       </c>
-      <c r="CJ13" t="n">
+      <c r="CZ13" t="n">
         <v>17669</v>
       </c>
-      <c r="CK13" t="n">
+      <c r="DA13" t="n">
         <v>17669</v>
       </c>
-      <c r="CL13" t="n">
+      <c r="DB13" t="n">
         <v>17669</v>
       </c>
-      <c r="CM13" t="n">
+      <c r="DC13" t="n">
         <v>17669</v>
       </c>
-      <c r="CN13" t="n">
+      <c r="DD13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="DF13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="CO13" t="n">
+      <c r="DG13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="CP13" t="n">
+      <c r="DH13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="CQ13" t="n">
+      <c r="DI13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="CR13" t="n">
+      <c r="DJ13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="CS13" t="n">
+      <c r="DK13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="CT13" t="n">
+      <c r="DL13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="DN13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="CU13" t="n">
+      <c r="DO13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="CV13" t="n">
+      <c r="DP13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="CW13" t="n">
+      <c r="DQ13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="CX13" t="n">
+      <c r="DR13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="CY13" t="n">
+      <c r="DS13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="CZ13" t="n">
+      <c r="DT13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="DV13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DA13" t="n">
+      <c r="DW13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DB13" t="n">
+      <c r="DX13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DC13" t="n">
+      <c r="DY13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DD13" t="n">
+      <c r="DZ13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DE13" t="n">
+      <c r="EA13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DF13" t="n">
+      <c r="EB13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="ED13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="DG13" t="n">
+      <c r="EE13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="DH13" t="n">
+      <c r="EF13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="DI13" t="n">
+      <c r="EG13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="DJ13" t="n">
+      <c r="EH13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="DK13" t="n">
+      <c r="EI13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="EJ13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="EL13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="EM13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="EN13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="EO13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="EP13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="EQ13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="DR13" t="inlineStr"/>
+      <c r="ER13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="ET13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5527,10 +6675,10 @@
         <v>5830</v>
       </c>
       <c r="AR14" t="n">
-        <v>5450</v>
+        <v>5830</v>
       </c>
       <c r="AS14" t="n">
-        <v>5450</v>
+        <v>5830</v>
       </c>
       <c r="AT14" t="n">
         <v>5450</v>
@@ -5545,16 +6693,16 @@
         <v>5450</v>
       </c>
       <c r="AX14" t="n">
-        <v>4749.97148</v>
+        <v>5450</v>
       </c>
       <c r="AY14" t="n">
-        <v>4749.97148</v>
+        <v>5450</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4749.97148</v>
+        <v>5450</v>
       </c>
       <c r="BA14" t="n">
-        <v>4749.97148</v>
+        <v>5450</v>
       </c>
       <c r="BB14" t="n">
         <v>4749.97148</v>
@@ -5563,204 +6711,288 @@
         <v>4749.97148</v>
       </c>
       <c r="BD14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>4749.97148</v>
+      </c>
+      <c r="BJ14" t="n">
         <v>5400</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BK14" t="n">
         <v>5400</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BL14" t="n">
         <v>5400</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BM14" t="n">
         <v>5400</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BN14" t="n">
         <v>5400</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BO14" t="n">
         <v>5400</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BP14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BR14" t="n">
         <v>4570</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BS14" t="n">
         <v>4570</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BT14" t="n">
         <v>4570</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BU14" t="n">
         <v>4570</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BV14" t="n">
         <v>4570</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BW14" t="n">
         <v>4570</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BX14" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BZ14" t="n">
         <v>4920</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="CA14" t="n">
         <v>4920</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="CB14" t="n">
         <v>4920</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="CC14" t="n">
         <v>4920</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="CD14" t="n">
         <v>4920</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="CE14" t="n">
         <v>4920</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="CF14" t="n">
+        <v>4920</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>4920</v>
+      </c>
+      <c r="CH14" t="n">
         <v>5510</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="CI14" t="n">
         <v>5510</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="CJ14" t="n">
         <v>5510</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="CK14" t="n">
         <v>5510</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="CL14" t="n">
         <v>5510</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CM14" t="n">
         <v>5510</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CN14" t="n">
+        <v>5510</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>5510</v>
+      </c>
+      <c r="CP14" t="n">
         <v>5960</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CQ14" t="n">
         <v>5960</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CR14" t="n">
         <v>5960</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CS14" t="n">
         <v>5960</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CT14" t="n">
         <v>5960</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CU14" t="n">
         <v>5960</v>
       </c>
-      <c r="CH14" t="n">
+      <c r="CV14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CX14" t="n">
         <v>5870</v>
       </c>
-      <c r="CI14" t="n">
+      <c r="CY14" t="n">
         <v>5870</v>
       </c>
-      <c r="CJ14" t="n">
+      <c r="CZ14" t="n">
         <v>5870</v>
       </c>
-      <c r="CK14" t="n">
+      <c r="DA14" t="n">
         <v>5870</v>
       </c>
-      <c r="CL14" t="n">
+      <c r="DB14" t="n">
         <v>5870</v>
       </c>
-      <c r="CM14" t="n">
+      <c r="DC14" t="n">
         <v>5870</v>
       </c>
-      <c r="CN14" t="n">
+      <c r="DD14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="DF14" t="n">
         <v>6350</v>
       </c>
-      <c r="CO14" t="n">
+      <c r="DG14" t="n">
         <v>6350</v>
       </c>
-      <c r="CP14" t="n">
+      <c r="DH14" t="n">
         <v>6350</v>
       </c>
-      <c r="CQ14" t="n">
+      <c r="DI14" t="n">
         <v>6350</v>
       </c>
-      <c r="CR14" t="n">
+      <c r="DJ14" t="n">
         <v>6350</v>
       </c>
-      <c r="CS14" t="n">
+      <c r="DK14" t="n">
         <v>6350</v>
       </c>
-      <c r="CT14" t="n">
+      <c r="DL14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="DN14" t="n">
         <v>6590</v>
       </c>
-      <c r="CU14" t="n">
+      <c r="DO14" t="n">
         <v>6590</v>
       </c>
-      <c r="CV14" t="n">
+      <c r="DP14" t="n">
         <v>6590</v>
       </c>
-      <c r="CW14" t="n">
+      <c r="DQ14" t="n">
         <v>6590</v>
       </c>
-      <c r="CX14" t="n">
+      <c r="DR14" t="n">
         <v>6590</v>
       </c>
-      <c r="CY14" t="n">
+      <c r="DS14" t="n">
         <v>6590</v>
       </c>
-      <c r="CZ14" t="n">
+      <c r="DT14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="DV14" t="n">
         <v>8340</v>
       </c>
-      <c r="DA14" t="n">
+      <c r="DW14" t="n">
         <v>8340</v>
       </c>
-      <c r="DB14" t="n">
+      <c r="DX14" t="n">
         <v>8340</v>
       </c>
-      <c r="DC14" t="n">
+      <c r="DY14" t="n">
         <v>8340</v>
       </c>
-      <c r="DD14" t="n">
+      <c r="DZ14" t="n">
         <v>8340</v>
       </c>
-      <c r="DE14" t="n">
+      <c r="EA14" t="n">
         <v>8340</v>
       </c>
-      <c r="DF14" t="n">
+      <c r="EB14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="ED14" t="n">
         <v>11720</v>
       </c>
-      <c r="DG14" t="n">
+      <c r="EE14" t="n">
         <v>11720</v>
       </c>
-      <c r="DH14" t="n">
+      <c r="EF14" t="n">
         <v>11720</v>
       </c>
-      <c r="DI14" t="n">
+      <c r="EG14" t="n">
         <v>11720</v>
       </c>
-      <c r="DJ14" t="n">
+      <c r="EH14" t="n">
         <v>11720</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="EI14" t="n">
         <v>11720</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="EJ14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="EL14" t="n">
         <v>11360</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="EM14" t="n">
         <v>11360</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="EN14" t="n">
         <v>11360</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="EO14" t="n">
         <v>11360</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="EP14" t="n">
         <v>11360</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="EQ14" t="n">
         <v>11360</v>
       </c>
-      <c r="DR14" t="inlineStr"/>
+      <c r="ER14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="ET14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5895,10 +7127,10 @@
         <v>131670</v>
       </c>
       <c r="AR15" t="n">
-        <v>140700</v>
+        <v>131670</v>
       </c>
       <c r="AS15" t="n">
-        <v>140700</v>
+        <v>131670</v>
       </c>
       <c r="AT15" t="n">
         <v>140700</v>
@@ -5913,16 +7145,16 @@
         <v>140700</v>
       </c>
       <c r="AX15" t="n">
-        <v>145958.090937</v>
+        <v>140700</v>
       </c>
       <c r="AY15" t="n">
-        <v>145958.090937</v>
+        <v>140700</v>
       </c>
       <c r="AZ15" t="n">
-        <v>145958.090937</v>
+        <v>140700</v>
       </c>
       <c r="BA15" t="n">
-        <v>145958.090937</v>
+        <v>140700</v>
       </c>
       <c r="BB15" t="n">
         <v>145958.090937</v>
@@ -5931,204 +7163,288 @@
         <v>145958.090937</v>
       </c>
       <c r="BD15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>145958.090937</v>
+      </c>
+      <c r="BJ15" t="n">
         <v>152920</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BK15" t="n">
         <v>152920</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BL15" t="n">
         <v>152920</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BM15" t="n">
         <v>152920</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BN15" t="n">
         <v>152920</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BO15" t="n">
         <v>152920</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BP15" t="n">
+        <v>152920</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>152920</v>
+      </c>
+      <c r="BR15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BS15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BT15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BU15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BV15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BW15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BX15" t="n">
+        <v>157422.409</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>157422.409</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="CA15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="CB15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="CC15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="CD15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="CE15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="CF15" t="n">
+        <v>165422.9196</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>165422.9196</v>
+      </c>
+      <c r="CH15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="CI15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="CJ15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="CK15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="CL15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CM15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CN15" t="n">
+        <v>175404.803</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>175404.803</v>
+      </c>
+      <c r="CP15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CQ15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CR15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CS15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CT15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CU15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="CH15" t="n">
+      <c r="CV15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CX15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CI15" t="n">
+      <c r="CY15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CJ15" t="n">
+      <c r="CZ15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CK15" t="n">
+      <c r="DA15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CL15" t="n">
+      <c r="DB15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CM15" t="n">
+      <c r="DC15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CN15" t="n">
+      <c r="DD15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="DF15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="CO15" t="n">
+      <c r="DG15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="CP15" t="n">
+      <c r="DH15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="CQ15" t="n">
+      <c r="DI15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="CR15" t="n">
+      <c r="DJ15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="CS15" t="n">
+      <c r="DK15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="CT15" t="n">
+      <c r="DL15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="DN15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="CU15" t="n">
+      <c r="DO15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="CV15" t="n">
+      <c r="DP15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="CW15" t="n">
+      <c r="DQ15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="CX15" t="n">
+      <c r="DR15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="CY15" t="n">
+      <c r="DS15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="CZ15" t="n">
+      <c r="DT15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="DV15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DA15" t="n">
+      <c r="DW15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DB15" t="n">
+      <c r="DX15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DC15" t="n">
+      <c r="DY15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DD15" t="n">
+      <c r="DZ15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DE15" t="n">
+      <c r="EA15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DF15" t="n">
+      <c r="EB15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="ED15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="DG15" t="n">
+      <c r="EE15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="DH15" t="n">
+      <c r="EF15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="EG15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="DJ15" t="n">
+      <c r="EH15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="EI15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="EJ15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="EL15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="EM15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="EN15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="EO15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="EP15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="EQ15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="DR15" t="inlineStr"/>
+      <c r="ER15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="ET15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET15"/>
+  <dimension ref="A1:FH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,530 +589,600 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1257,7 +1327,7 @@
         <v>10850</v>
       </c>
       <c r="AT2" t="n">
-        <v>12170</v>
+        <v>10850</v>
       </c>
       <c r="AU2" t="n">
         <v>12170</v>
@@ -1281,10 +1351,10 @@
         <v>12170</v>
       </c>
       <c r="BB2" t="n">
-        <v>12191.117884</v>
+        <v>12170</v>
       </c>
       <c r="BC2" t="n">
-        <v>12191.117884</v>
+        <v>12170</v>
       </c>
       <c r="BD2" t="n">
         <v>12191.117884</v>
@@ -1305,13 +1375,13 @@
         <v>12191.117884</v>
       </c>
       <c r="BJ2" t="n">
-        <v>13140</v>
+        <v>12191.117884</v>
       </c>
       <c r="BK2" t="n">
-        <v>13140</v>
+        <v>12191.117884</v>
       </c>
       <c r="BL2" t="n">
-        <v>13140</v>
+        <v>12191.117884</v>
       </c>
       <c r="BM2" t="n">
         <v>13140</v>
@@ -1329,16 +1399,16 @@
         <v>13140</v>
       </c>
       <c r="BR2" t="n">
-        <v>14331.4</v>
+        <v>13140</v>
       </c>
       <c r="BS2" t="n">
-        <v>14331.4</v>
+        <v>13140</v>
       </c>
       <c r="BT2" t="n">
-        <v>14331.4</v>
+        <v>13140</v>
       </c>
       <c r="BU2" t="n">
-        <v>14331.4</v>
+        <v>13140</v>
       </c>
       <c r="BV2" t="n">
         <v>14331.4</v>
@@ -1353,19 +1423,19 @@
         <v>14331.4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>15349.7</v>
+        <v>14331.4</v>
       </c>
       <c r="CA2" t="n">
-        <v>15349.7</v>
+        <v>14331.4</v>
       </c>
       <c r="CB2" t="n">
-        <v>15349.7</v>
+        <v>14331.4</v>
       </c>
       <c r="CC2" t="n">
-        <v>15349.7</v>
+        <v>14331.4</v>
       </c>
       <c r="CD2" t="n">
-        <v>15349.7</v>
+        <v>14331.4</v>
       </c>
       <c r="CE2" t="n">
         <v>15349.7</v>
@@ -1377,22 +1447,22 @@
         <v>15349.7</v>
       </c>
       <c r="CH2" t="n">
-        <v>15600.7</v>
+        <v>15349.7</v>
       </c>
       <c r="CI2" t="n">
-        <v>15600.7</v>
+        <v>15349.7</v>
       </c>
       <c r="CJ2" t="n">
-        <v>15600.7</v>
+        <v>15349.7</v>
       </c>
       <c r="CK2" t="n">
-        <v>15600.7</v>
+        <v>15349.7</v>
       </c>
       <c r="CL2" t="n">
-        <v>15600.7</v>
+        <v>15349.7</v>
       </c>
       <c r="CM2" t="n">
-        <v>15600.7</v>
+        <v>15349.7</v>
       </c>
       <c r="CN2" t="n">
         <v>15600.7</v>
@@ -1401,174 +1471,216 @@
         <v>15600.7</v>
       </c>
       <c r="CP2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CQ2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CR2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CS2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CT2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CU2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CV2" t="n">
-        <v>16293.648826</v>
+        <v>15600.7</v>
       </c>
       <c r="CW2" t="n">
         <v>16293.648826</v>
       </c>
       <c r="CX2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>16293.648826</v>
+      </c>
+      <c r="DF2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DG2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DH2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DI2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DJ2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DK2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DL2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DM2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DN2" t="n">
+        <v>18000.102375</v>
+      </c>
+      <c r="DO2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DP2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DQ2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DR2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DS2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DT2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DU2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DV2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DW2" t="n">
+        <v>19623.222262</v>
+      </c>
+      <c r="DX2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DY2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DZ2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EA2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="EB2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EC2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ED2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="EE2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="EF2" t="n">
+        <v>21608.210238</v>
+      </c>
+      <c r="EG2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="EH2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EI2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EJ2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EK2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EL2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EM2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EN2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EO2" t="n">
+        <v>23341.821039</v>
+      </c>
+      <c r="EP2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EQ2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="ER2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="ES2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="ET2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EU2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EV2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EW2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EX2" t="n">
+        <v>24906.798506</v>
+      </c>
+      <c r="EY2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EZ2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="FA2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="FB2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="FC2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="FD2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="FE2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="FF2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="ET2" t="inlineStr"/>
+      <c r="FG2" t="n">
+        <v>26329.7799990071</v>
+      </c>
+      <c r="FH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1709,7 +1821,7 @@
         <v>9290</v>
       </c>
       <c r="AT3" t="n">
-        <v>10330</v>
+        <v>9290</v>
       </c>
       <c r="AU3" t="n">
         <v>10330</v>
@@ -1733,10 +1845,10 @@
         <v>10330</v>
       </c>
       <c r="BB3" t="n">
-        <v>11257.772</v>
+        <v>10330</v>
       </c>
       <c r="BC3" t="n">
-        <v>11257.772</v>
+        <v>10330</v>
       </c>
       <c r="BD3" t="n">
         <v>11257.772</v>
@@ -1757,13 +1869,13 @@
         <v>11257.772</v>
       </c>
       <c r="BJ3" t="n">
-        <v>12820</v>
+        <v>11257.772</v>
       </c>
       <c r="BK3" t="n">
-        <v>12820</v>
+        <v>11257.772</v>
       </c>
       <c r="BL3" t="n">
-        <v>12820</v>
+        <v>11257.772</v>
       </c>
       <c r="BM3" t="n">
         <v>12820</v>
@@ -1781,16 +1893,16 @@
         <v>12820</v>
       </c>
       <c r="BR3" t="n">
-        <v>14194.4</v>
+        <v>12820</v>
       </c>
       <c r="BS3" t="n">
-        <v>14194.4</v>
+        <v>12820</v>
       </c>
       <c r="BT3" t="n">
-        <v>14194.4</v>
+        <v>12820</v>
       </c>
       <c r="BU3" t="n">
-        <v>14194.4</v>
+        <v>12820</v>
       </c>
       <c r="BV3" t="n">
         <v>14194.4</v>
@@ -1805,19 +1917,19 @@
         <v>14194.4</v>
       </c>
       <c r="BZ3" t="n">
-        <v>14992.4</v>
+        <v>14194.4</v>
       </c>
       <c r="CA3" t="n">
-        <v>14992.4</v>
+        <v>14194.4</v>
       </c>
       <c r="CB3" t="n">
-        <v>14992.4</v>
+        <v>14194.4</v>
       </c>
       <c r="CC3" t="n">
-        <v>14992.4</v>
+        <v>14194.4</v>
       </c>
       <c r="CD3" t="n">
-        <v>14992.4</v>
+        <v>14194.4</v>
       </c>
       <c r="CE3" t="n">
         <v>14992.4</v>
@@ -1829,22 +1941,22 @@
         <v>14992.4</v>
       </c>
       <c r="CH3" t="n">
-        <v>15743.9</v>
+        <v>14992.4</v>
       </c>
       <c r="CI3" t="n">
-        <v>15743.9</v>
+        <v>14992.4</v>
       </c>
       <c r="CJ3" t="n">
-        <v>15743.9</v>
+        <v>14992.4</v>
       </c>
       <c r="CK3" t="n">
-        <v>15743.9</v>
+        <v>14992.4</v>
       </c>
       <c r="CL3" t="n">
-        <v>15743.9</v>
+        <v>14992.4</v>
       </c>
       <c r="CM3" t="n">
-        <v>15743.9</v>
+        <v>14992.4</v>
       </c>
       <c r="CN3" t="n">
         <v>15743.9</v>
@@ -1853,174 +1965,216 @@
         <v>15743.9</v>
       </c>
       <c r="CP3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CQ3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CR3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CS3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CT3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CU3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CV3" t="n">
-        <v>17128.25591</v>
+        <v>15743.9</v>
       </c>
       <c r="CW3" t="n">
         <v>17128.25591</v>
       </c>
       <c r="CX3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>17128.25591</v>
+      </c>
+      <c r="DF3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="DG3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DH3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DI3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DJ3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DK3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DL3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DM3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DN3" t="n">
+        <v>19075.40244</v>
+      </c>
+      <c r="DO3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DP3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DQ3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DR3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DS3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DT3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DU3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DV3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DW3" t="n">
+        <v>21846.6309</v>
+      </c>
+      <c r="DX3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DY3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DZ3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="EA3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="EB3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="EC3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="ED3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="EE3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="EF3" t="n">
+        <v>23764.93403</v>
+      </c>
+      <c r="EG3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="EH3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="EI3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EJ3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EK3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EL3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EM3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EN3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EO3" t="n">
+        <v>26174.47836</v>
+      </c>
+      <c r="EP3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EQ3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="ER3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="ES3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="ET3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EU3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EV3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EW3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EX3" t="n">
+        <v>28284.40487</v>
+      </c>
+      <c r="EY3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EZ3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="FA3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="FB3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="FC3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="FD3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="FE3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="FF3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="ET3" t="inlineStr"/>
+      <c r="FG3" t="n">
+        <v>29975.488406249</v>
+      </c>
+      <c r="FH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2161,7 +2315,7 @@
         <v>13890</v>
       </c>
       <c r="AT4" t="n">
-        <v>13290</v>
+        <v>13890</v>
       </c>
       <c r="AU4" t="n">
         <v>13290</v>
@@ -2185,10 +2339,10 @@
         <v>13290</v>
       </c>
       <c r="BB4" t="n">
-        <v>13910.7253</v>
+        <v>13290</v>
       </c>
       <c r="BC4" t="n">
-        <v>13910.7253</v>
+        <v>13290</v>
       </c>
       <c r="BD4" t="n">
         <v>13910.7253</v>
@@ -2209,13 +2363,13 @@
         <v>13910.7253</v>
       </c>
       <c r="BJ4" t="n">
-        <v>10130</v>
+        <v>13910.7253</v>
       </c>
       <c r="BK4" t="n">
-        <v>10130</v>
+        <v>13910.7253</v>
       </c>
       <c r="BL4" t="n">
-        <v>10130</v>
+        <v>13910.7253</v>
       </c>
       <c r="BM4" t="n">
         <v>10130</v>
@@ -2233,16 +2387,16 @@
         <v>10130</v>
       </c>
       <c r="BR4" t="n">
-        <v>10676.3</v>
+        <v>10130</v>
       </c>
       <c r="BS4" t="n">
-        <v>10676.3</v>
+        <v>10130</v>
       </c>
       <c r="BT4" t="n">
-        <v>10676.3</v>
+        <v>10130</v>
       </c>
       <c r="BU4" t="n">
-        <v>10676.3</v>
+        <v>10130</v>
       </c>
       <c r="BV4" t="n">
         <v>10676.3</v>
@@ -2257,19 +2411,19 @@
         <v>10676.3</v>
       </c>
       <c r="BZ4" t="n">
-        <v>11221.5</v>
+        <v>10676.3</v>
       </c>
       <c r="CA4" t="n">
-        <v>11221.5</v>
+        <v>10676.3</v>
       </c>
       <c r="CB4" t="n">
-        <v>11221.5</v>
+        <v>10676.3</v>
       </c>
       <c r="CC4" t="n">
-        <v>11221.5</v>
+        <v>10676.3</v>
       </c>
       <c r="CD4" t="n">
-        <v>11221.5</v>
+        <v>10676.3</v>
       </c>
       <c r="CE4" t="n">
         <v>11221.5</v>
@@ -2281,22 +2435,22 @@
         <v>11221.5</v>
       </c>
       <c r="CH4" t="n">
-        <v>12289.4</v>
+        <v>11221.5</v>
       </c>
       <c r="CI4" t="n">
-        <v>12289.4</v>
+        <v>11221.5</v>
       </c>
       <c r="CJ4" t="n">
-        <v>12289.4</v>
+        <v>11221.5</v>
       </c>
       <c r="CK4" t="n">
-        <v>12289.4</v>
+        <v>11221.5</v>
       </c>
       <c r="CL4" t="n">
-        <v>12289.4</v>
+        <v>11221.5</v>
       </c>
       <c r="CM4" t="n">
-        <v>12289.4</v>
+        <v>11221.5</v>
       </c>
       <c r="CN4" t="n">
         <v>12289.4</v>
@@ -2305,174 +2459,216 @@
         <v>12289.4</v>
       </c>
       <c r="CP4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CQ4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CR4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CS4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CT4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CU4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CV4" t="n">
-        <v>11305.20265</v>
+        <v>12289.4</v>
       </c>
       <c r="CW4" t="n">
         <v>11305.20265</v>
       </c>
       <c r="CX4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>11305.20265</v>
+      </c>
+      <c r="DF4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="DG4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DH4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DI4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DJ4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DK4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DL4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DM4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DN4" t="n">
+        <v>11082.02871</v>
+      </c>
+      <c r="DO4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DP4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DQ4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DR4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DS4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DT4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DU4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DV4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DW4" t="n">
+        <v>13270.84139</v>
+      </c>
+      <c r="DX4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DY4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DZ4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="EA4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="EB4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="EC4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="ED4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="EE4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="EF4" t="n">
+        <v>13240.78059</v>
+      </c>
+      <c r="EG4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="EH4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="EI4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EJ4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EK4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EL4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EM4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EN4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EO4" t="n">
+        <v>12888.60699</v>
+      </c>
+      <c r="EP4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EQ4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="ER4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="ES4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="ET4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EU4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EV4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EW4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EX4" t="n">
+        <v>14131.23164</v>
+      </c>
+      <c r="EY4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EZ4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="FA4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="FB4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="FC4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="FD4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="FE4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="FF4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="ET4" t="inlineStr"/>
+      <c r="FG4" t="n">
+        <v>14267.7787825455</v>
+      </c>
+      <c r="FH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2613,7 +2809,7 @@
         <v>9510</v>
       </c>
       <c r="AT5" t="n">
-        <v>9370</v>
+        <v>9510</v>
       </c>
       <c r="AU5" t="n">
         <v>9370</v>
@@ -2637,10 +2833,10 @@
         <v>9370</v>
       </c>
       <c r="BB5" t="n">
-        <v>9302.868999999999</v>
+        <v>9370</v>
       </c>
       <c r="BC5" t="n">
-        <v>9302.868999999999</v>
+        <v>9370</v>
       </c>
       <c r="BD5" t="n">
         <v>9302.868999999999</v>
@@ -2661,13 +2857,13 @@
         <v>9302.868999999999</v>
       </c>
       <c r="BJ5" t="n">
-        <v>9300</v>
+        <v>9302.868999999999</v>
       </c>
       <c r="BK5" t="n">
-        <v>9300</v>
+        <v>9302.868999999999</v>
       </c>
       <c r="BL5" t="n">
-        <v>9300</v>
+        <v>9302.868999999999</v>
       </c>
       <c r="BM5" t="n">
         <v>9300</v>
@@ -2685,16 +2881,16 @@
         <v>9300</v>
       </c>
       <c r="BR5" t="n">
-        <v>8927.799999999999</v>
+        <v>9300</v>
       </c>
       <c r="BS5" t="n">
-        <v>8927.799999999999</v>
+        <v>9300</v>
       </c>
       <c r="BT5" t="n">
-        <v>8927.799999999999</v>
+        <v>9300</v>
       </c>
       <c r="BU5" t="n">
-        <v>8927.799999999999</v>
+        <v>9300</v>
       </c>
       <c r="BV5" t="n">
         <v>8927.799999999999</v>
@@ -2709,19 +2905,19 @@
         <v>8927.799999999999</v>
       </c>
       <c r="BZ5" t="n">
-        <v>8228.700000000001</v>
+        <v>8927.799999999999</v>
       </c>
       <c r="CA5" t="n">
-        <v>8228.700000000001</v>
+        <v>8927.799999999999</v>
       </c>
       <c r="CB5" t="n">
-        <v>8228.700000000001</v>
+        <v>8927.799999999999</v>
       </c>
       <c r="CC5" t="n">
-        <v>8228.700000000001</v>
+        <v>8927.799999999999</v>
       </c>
       <c r="CD5" t="n">
-        <v>8228.700000000001</v>
+        <v>8927.799999999999</v>
       </c>
       <c r="CE5" t="n">
         <v>8228.700000000001</v>
@@ -2733,22 +2929,22 @@
         <v>8228.700000000001</v>
       </c>
       <c r="CH5" t="n">
-        <v>7501.5</v>
+        <v>8228.700000000001</v>
       </c>
       <c r="CI5" t="n">
-        <v>7501.5</v>
+        <v>8228.700000000001</v>
       </c>
       <c r="CJ5" t="n">
-        <v>7501.5</v>
+        <v>8228.700000000001</v>
       </c>
       <c r="CK5" t="n">
-        <v>7501.5</v>
+        <v>8228.700000000001</v>
       </c>
       <c r="CL5" t="n">
-        <v>7501.5</v>
+        <v>8228.700000000001</v>
       </c>
       <c r="CM5" t="n">
-        <v>7501.5</v>
+        <v>8228.700000000001</v>
       </c>
       <c r="CN5" t="n">
         <v>7501.5</v>
@@ -2757,174 +2953,216 @@
         <v>7501.5</v>
       </c>
       <c r="CP5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CQ5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CR5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CS5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CT5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CU5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CV5" t="n">
-        <v>7164.770039999999</v>
+        <v>7501.5</v>
       </c>
       <c r="CW5" t="n">
         <v>7164.770039999999</v>
       </c>
       <c r="CX5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>7164.770039999999</v>
+      </c>
+      <c r="DF5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="DG5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DH5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DI5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DJ5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DK5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DL5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DM5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DN5" t="n">
+        <v>7086.71819</v>
+      </c>
+      <c r="DO5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DP5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DQ5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DR5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DS5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DT5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DU5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DV5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DW5" t="n">
+        <v>6826.30659</v>
+      </c>
+      <c r="DX5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DY5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DZ5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="EA5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="EB5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="EC5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="ED5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="EE5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="EF5" t="n">
+        <v>5396.81339000001</v>
+      </c>
+      <c r="EG5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="EH5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="EI5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="EJ5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EK5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EL5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EM5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EN5" t="n">
         <v>3845.11811000001</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EO5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="EP5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EQ5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="ER5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="ES5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="ET5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EU5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EV5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EW5" t="n">
         <v>3459.46408999999</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EX5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="EY5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EZ5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="FA5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="FB5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="FC5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="FD5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="FE5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="FF5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="ET5" t="inlineStr"/>
+      <c r="FG5" t="n">
+        <v>2396.8245022973</v>
+      </c>
+      <c r="FH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3065,7 +3303,7 @@
         <v>3980</v>
       </c>
       <c r="AT6" t="n">
-        <v>4540</v>
+        <v>3980</v>
       </c>
       <c r="AU6" t="n">
         <v>4540</v>
@@ -3089,10 +3327,10 @@
         <v>4540</v>
       </c>
       <c r="BB6" t="n">
-        <v>4423.20055</v>
+        <v>4540</v>
       </c>
       <c r="BC6" t="n">
-        <v>4423.20055</v>
+        <v>4540</v>
       </c>
       <c r="BD6" t="n">
         <v>4423.20055</v>
@@ -3113,13 +3351,13 @@
         <v>4423.20055</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4630</v>
+        <v>4423.20055</v>
       </c>
       <c r="BK6" t="n">
-        <v>4630</v>
+        <v>4423.20055</v>
       </c>
       <c r="BL6" t="n">
-        <v>4630</v>
+        <v>4423.20055</v>
       </c>
       <c r="BM6" t="n">
         <v>4630</v>
@@ -3137,16 +3375,16 @@
         <v>4630</v>
       </c>
       <c r="BR6" t="n">
-        <v>5078.400000000001</v>
+        <v>4630</v>
       </c>
       <c r="BS6" t="n">
-        <v>5078.400000000001</v>
+        <v>4630</v>
       </c>
       <c r="BT6" t="n">
-        <v>5078.400000000001</v>
+        <v>4630</v>
       </c>
       <c r="BU6" t="n">
-        <v>5078.400000000001</v>
+        <v>4630</v>
       </c>
       <c r="BV6" t="n">
         <v>5078.400000000001</v>
@@ -3161,19 +3399,19 @@
         <v>5078.400000000001</v>
       </c>
       <c r="BZ6" t="n">
-        <v>5536.1</v>
+        <v>5078.400000000001</v>
       </c>
       <c r="CA6" t="n">
-        <v>5536.1</v>
+        <v>5078.400000000001</v>
       </c>
       <c r="CB6" t="n">
-        <v>5536.1</v>
+        <v>5078.400000000001</v>
       </c>
       <c r="CC6" t="n">
-        <v>5536.1</v>
+        <v>5078.400000000001</v>
       </c>
       <c r="CD6" t="n">
-        <v>5536.1</v>
+        <v>5078.400000000001</v>
       </c>
       <c r="CE6" t="n">
         <v>5536.1</v>
@@ -3185,22 +3423,22 @@
         <v>5536.1</v>
       </c>
       <c r="CH6" t="n">
-        <v>5270.5</v>
+        <v>5536.1</v>
       </c>
       <c r="CI6" t="n">
-        <v>5270.5</v>
+        <v>5536.1</v>
       </c>
       <c r="CJ6" t="n">
-        <v>5270.5</v>
+        <v>5536.1</v>
       </c>
       <c r="CK6" t="n">
-        <v>5270.5</v>
+        <v>5536.1</v>
       </c>
       <c r="CL6" t="n">
-        <v>5270.5</v>
+        <v>5536.1</v>
       </c>
       <c r="CM6" t="n">
-        <v>5270.5</v>
+        <v>5536.1</v>
       </c>
       <c r="CN6" t="n">
         <v>5270.5</v>
@@ -3209,174 +3447,216 @@
         <v>5270.5</v>
       </c>
       <c r="CP6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CR6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CS6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CT6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CU6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CV6" t="n">
-        <v>5504.586899999999</v>
+        <v>5270.5</v>
       </c>
       <c r="CW6" t="n">
         <v>5504.586899999999</v>
       </c>
       <c r="CX6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="DF6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="DG6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DH6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DI6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DJ6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DK6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DL6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DM6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DN6" t="n">
+        <v>5722.898630000001</v>
+      </c>
+      <c r="DO6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DP6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DQ6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DR6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DS6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DT6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DU6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DV6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DW6" t="n">
+        <v>6261.74492</v>
+      </c>
+      <c r="DX6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DY6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DZ6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="EA6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="EB6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="EC6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="ED6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="EE6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="EF6" t="n">
+        <v>6997.51497</v>
+      </c>
+      <c r="EG6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="EH6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="EI6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="EJ6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EK6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EL6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EM6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EN6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EO6" t="n">
+        <v>7632.684399999999</v>
+      </c>
+      <c r="EP6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EQ6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="ER6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="ES6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="ET6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EU6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EV6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EW6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EX6" t="n">
+        <v>8300.066340000001</v>
+      </c>
+      <c r="EY6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EZ6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="FA6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="FB6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="FC6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="FD6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="FE6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="FF6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="ET6" t="inlineStr"/>
+      <c r="FG6" t="n">
+        <v>7998.60903551754</v>
+      </c>
+      <c r="FH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3517,7 +3797,7 @@
         <v>42900</v>
       </c>
       <c r="AT7" t="n">
-        <v>47670</v>
+        <v>42900</v>
       </c>
       <c r="AU7" t="n">
         <v>47670</v>
@@ -3541,10 +3821,10 @@
         <v>47670</v>
       </c>
       <c r="BB7" t="n">
-        <v>51710.357</v>
+        <v>47670</v>
       </c>
       <c r="BC7" t="n">
-        <v>51710.357</v>
+        <v>47670</v>
       </c>
       <c r="BD7" t="n">
         <v>51710.357</v>
@@ -3565,13 +3845,13 @@
         <v>51710.357</v>
       </c>
       <c r="BJ7" t="n">
-        <v>56240</v>
+        <v>51710.357</v>
       </c>
       <c r="BK7" t="n">
-        <v>56240</v>
+        <v>51710.357</v>
       </c>
       <c r="BL7" t="n">
-        <v>56240</v>
+        <v>51710.357</v>
       </c>
       <c r="BM7" t="n">
         <v>56240</v>
@@ -3589,16 +3869,16 @@
         <v>56240</v>
       </c>
       <c r="BR7" t="n">
-        <v>60071.1</v>
+        <v>56240</v>
       </c>
       <c r="BS7" t="n">
-        <v>60071.1</v>
+        <v>56240</v>
       </c>
       <c r="BT7" t="n">
-        <v>60071.1</v>
+        <v>56240</v>
       </c>
       <c r="BU7" t="n">
-        <v>60071.1</v>
+        <v>56240</v>
       </c>
       <c r="BV7" t="n">
         <v>60071.1</v>
@@ -3613,19 +3893,19 @@
         <v>60071.1</v>
       </c>
       <c r="BZ7" t="n">
-        <v>64750</v>
+        <v>60071.1</v>
       </c>
       <c r="CA7" t="n">
-        <v>64750</v>
+        <v>60071.1</v>
       </c>
       <c r="CB7" t="n">
-        <v>64750</v>
+        <v>60071.1</v>
       </c>
       <c r="CC7" t="n">
-        <v>64750</v>
+        <v>60071.1</v>
       </c>
       <c r="CD7" t="n">
-        <v>64750</v>
+        <v>60071.1</v>
       </c>
       <c r="CE7" t="n">
         <v>64750</v>
@@ -3637,22 +3917,22 @@
         <v>64750</v>
       </c>
       <c r="CH7" t="n">
-        <v>69079.89999999999</v>
+        <v>64750</v>
       </c>
       <c r="CI7" t="n">
-        <v>69079.89999999999</v>
+        <v>64750</v>
       </c>
       <c r="CJ7" t="n">
-        <v>69079.89999999999</v>
+        <v>64750</v>
       </c>
       <c r="CK7" t="n">
-        <v>69079.89999999999</v>
+        <v>64750</v>
       </c>
       <c r="CL7" t="n">
-        <v>69079.89999999999</v>
+        <v>64750</v>
       </c>
       <c r="CM7" t="n">
-        <v>69079.89999999999</v>
+        <v>64750</v>
       </c>
       <c r="CN7" t="n">
         <v>69079.89999999999</v>
@@ -3661,174 +3941,216 @@
         <v>69079.89999999999</v>
       </c>
       <c r="CP7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CQ7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CR7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CS7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CT7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CU7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CV7" t="n">
-        <v>68363.92370999999</v>
+        <v>69079.89999999999</v>
       </c>
       <c r="CW7" t="n">
         <v>68363.92370999999</v>
       </c>
       <c r="CX7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>68363.92370999999</v>
+      </c>
+      <c r="DF7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="DG7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DH7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DI7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DJ7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DK7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DL7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DM7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DN7" t="n">
+        <v>69416.22012000001</v>
+      </c>
+      <c r="DO7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DP7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DQ7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DR7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DS7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DT7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DU7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DV7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DW7" t="n">
+        <v>74647.07201</v>
+      </c>
+      <c r="DX7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DY7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DZ7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="EA7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="EB7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="EC7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="ED7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="EE7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="EF7" t="n">
+        <v>76026.57125999971</v>
+      </c>
+      <c r="EG7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="EH7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="EI7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="EJ7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EK7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EL7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EM7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EN7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EO7" t="n">
+        <v>81073.43645999969</v>
+      </c>
+      <c r="EP7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EQ7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="ER7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="ES7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="ET7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EU7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EV7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EW7" t="n">
         <v>83528.16559999989</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EX7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="EY7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EZ7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="FA7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="FB7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="FC7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="FD7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="FE7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="FF7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="ET7" t="inlineStr"/>
+      <c r="FG7" t="n">
+        <v>82602.01250544679</v>
+      </c>
+      <c r="FH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3969,7 +4291,7 @@
         <v>720</v>
       </c>
       <c r="AT8" t="n">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="AU8" t="n">
         <v>670</v>
@@ -3993,10 +4315,10 @@
         <v>670</v>
       </c>
       <c r="BB8" t="n">
-        <v>552.2569999999999</v>
+        <v>670</v>
       </c>
       <c r="BC8" t="n">
-        <v>552.2569999999999</v>
+        <v>670</v>
       </c>
       <c r="BD8" t="n">
         <v>552.2569999999999</v>
@@ -4017,13 +4339,13 @@
         <v>552.2569999999999</v>
       </c>
       <c r="BJ8" t="n">
-        <v>460</v>
+        <v>552.2569999999999</v>
       </c>
       <c r="BK8" t="n">
-        <v>460</v>
+        <v>552.2569999999999</v>
       </c>
       <c r="BL8" t="n">
-        <v>460</v>
+        <v>552.2569999999999</v>
       </c>
       <c r="BM8" t="n">
         <v>460</v>
@@ -4041,16 +4363,16 @@
         <v>460</v>
       </c>
       <c r="BR8" t="n">
-        <v>455.3</v>
+        <v>460</v>
       </c>
       <c r="BS8" t="n">
-        <v>455.3</v>
+        <v>460</v>
       </c>
       <c r="BT8" t="n">
-        <v>455.3</v>
+        <v>460</v>
       </c>
       <c r="BU8" t="n">
-        <v>455.3</v>
+        <v>460</v>
       </c>
       <c r="BV8" t="n">
         <v>455.3</v>
@@ -4065,19 +4387,19 @@
         <v>455.3</v>
       </c>
       <c r="BZ8" t="n">
-        <v>414.8</v>
+        <v>455.3</v>
       </c>
       <c r="CA8" t="n">
-        <v>414.8</v>
+        <v>455.3</v>
       </c>
       <c r="CB8" t="n">
-        <v>414.8</v>
+        <v>455.3</v>
       </c>
       <c r="CC8" t="n">
-        <v>414.8</v>
+        <v>455.3</v>
       </c>
       <c r="CD8" t="n">
-        <v>414.8</v>
+        <v>455.3</v>
       </c>
       <c r="CE8" t="n">
         <v>414.8</v>
@@ -4089,22 +4411,22 @@
         <v>414.8</v>
       </c>
       <c r="CH8" t="n">
-        <v>398.5</v>
+        <v>414.8</v>
       </c>
       <c r="CI8" t="n">
-        <v>398.5</v>
+        <v>414.8</v>
       </c>
       <c r="CJ8" t="n">
-        <v>398.5</v>
+        <v>414.8</v>
       </c>
       <c r="CK8" t="n">
-        <v>398.5</v>
+        <v>414.8</v>
       </c>
       <c r="CL8" t="n">
-        <v>398.5</v>
+        <v>414.8</v>
       </c>
       <c r="CM8" t="n">
-        <v>398.5</v>
+        <v>414.8</v>
       </c>
       <c r="CN8" t="n">
         <v>398.5</v>
@@ -4113,174 +4435,216 @@
         <v>398.5</v>
       </c>
       <c r="CP8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CQ8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CR8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CS8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CT8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CU8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CV8" t="n">
-        <v>386.31654</v>
+        <v>398.5</v>
       </c>
       <c r="CW8" t="n">
         <v>386.31654</v>
       </c>
       <c r="CX8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>386.31654</v>
+      </c>
+      <c r="DF8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="DG8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DH8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DI8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DJ8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DK8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DL8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DM8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DN8" t="n">
+        <v>365.26345</v>
+      </c>
+      <c r="DO8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DP8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DQ8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DR8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DS8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DT8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DU8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DV8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DW8" t="n">
+        <v>407.10756</v>
+      </c>
+      <c r="DX8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DY8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DZ8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="EA8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="EB8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="EC8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="ED8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="EE8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="EF8" t="n">
+        <v>448.98441</v>
+      </c>
+      <c r="EG8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="EH8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="EI8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="EJ8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EK8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EL8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EM8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EN8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EO8" t="n">
+        <v>523.78752</v>
+      </c>
+      <c r="EP8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EQ8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="ER8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="ES8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="ET8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EU8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EV8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EW8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EX8" t="n">
+        <v>597.96794</v>
+      </c>
+      <c r="EY8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EZ8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="FA8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="FB8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="FC8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="FD8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="FE8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="FF8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="ET8" t="inlineStr"/>
+      <c r="FG8" t="n">
+        <v>627.799544639932</v>
+      </c>
+      <c r="FH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4421,7 +4785,7 @@
         <v>12620</v>
       </c>
       <c r="AT9" t="n">
-        <v>12720</v>
+        <v>12620</v>
       </c>
       <c r="AU9" t="n">
         <v>12720</v>
@@ -4445,10 +4809,10 @@
         <v>12720</v>
       </c>
       <c r="BB9" t="n">
-        <v>12588.05593</v>
+        <v>12720</v>
       </c>
       <c r="BC9" t="n">
-        <v>12588.05593</v>
+        <v>12720</v>
       </c>
       <c r="BD9" t="n">
         <v>12588.05593</v>
@@ -4469,13 +4833,13 @@
         <v>12588.05593</v>
       </c>
       <c r="BJ9" t="n">
-        <v>11630</v>
+        <v>12588.05593</v>
       </c>
       <c r="BK9" t="n">
-        <v>11630</v>
+        <v>12588.05593</v>
       </c>
       <c r="BL9" t="n">
-        <v>11630</v>
+        <v>12588.05593</v>
       </c>
       <c r="BM9" t="n">
         <v>11630</v>
@@ -4493,16 +4857,16 @@
         <v>11630</v>
       </c>
       <c r="BR9" t="n">
-        <v>10789.2</v>
+        <v>11630</v>
       </c>
       <c r="BS9" t="n">
-        <v>10789.2</v>
+        <v>11630</v>
       </c>
       <c r="BT9" t="n">
-        <v>10789.2</v>
+        <v>11630</v>
       </c>
       <c r="BU9" t="n">
-        <v>10789.2</v>
+        <v>11630</v>
       </c>
       <c r="BV9" t="n">
         <v>10789.2</v>
@@ -4517,19 +4881,19 @@
         <v>10789.2</v>
       </c>
       <c r="BZ9" t="n">
-        <v>9306.6</v>
+        <v>10789.2</v>
       </c>
       <c r="CA9" t="n">
-        <v>9306.6</v>
+        <v>10789.2</v>
       </c>
       <c r="CB9" t="n">
-        <v>9306.6</v>
+        <v>10789.2</v>
       </c>
       <c r="CC9" t="n">
-        <v>9306.6</v>
+        <v>10789.2</v>
       </c>
       <c r="CD9" t="n">
-        <v>9306.6</v>
+        <v>10789.2</v>
       </c>
       <c r="CE9" t="n">
         <v>9306.6</v>
@@ -4541,22 +4905,22 @@
         <v>9306.6</v>
       </c>
       <c r="CH9" t="n">
-        <v>7656.4</v>
+        <v>9306.6</v>
       </c>
       <c r="CI9" t="n">
-        <v>7656.4</v>
+        <v>9306.6</v>
       </c>
       <c r="CJ9" t="n">
-        <v>7656.4</v>
+        <v>9306.6</v>
       </c>
       <c r="CK9" t="n">
-        <v>7656.4</v>
+        <v>9306.6</v>
       </c>
       <c r="CL9" t="n">
-        <v>7656.4</v>
+        <v>9306.6</v>
       </c>
       <c r="CM9" t="n">
-        <v>7656.4</v>
+        <v>9306.6</v>
       </c>
       <c r="CN9" t="n">
         <v>7656.4</v>
@@ -4565,174 +4929,216 @@
         <v>7656.4</v>
       </c>
       <c r="CP9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CR9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CS9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CT9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CU9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CV9" t="n">
-        <v>6235.6723</v>
+        <v>7656.4</v>
       </c>
       <c r="CW9" t="n">
         <v>6235.6723</v>
       </c>
       <c r="CX9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>6235.6723</v>
+      </c>
+      <c r="DF9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="DG9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DH9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DI9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DJ9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DK9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DL9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DM9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DN9" t="n">
+        <v>5960.856220000001</v>
+      </c>
+      <c r="DO9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DP9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DQ9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DR9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DS9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DT9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DU9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DV9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DW9" t="n">
+        <v>6632.30552</v>
+      </c>
+      <c r="DX9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DY9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DZ9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="EA9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="EB9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="EC9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="ED9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="EE9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="EF9" t="n">
+        <v>7150.42936</v>
+      </c>
+      <c r="EG9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="EH9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="EI9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="EJ9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EK9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EL9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EM9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EN9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EO9" t="n">
+        <v>6720.972040000001</v>
+      </c>
+      <c r="EP9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EQ9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="ER9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="ES9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="ET9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EU9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EV9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EW9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EX9" t="n">
+        <v>6563.57035</v>
+      </c>
+      <c r="EY9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EZ9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="FA9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="FB9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="FC9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="FD9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="FE9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="FF9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="ET9" t="inlineStr"/>
+      <c r="FG9" t="n">
+        <v>6301.5391187901</v>
+      </c>
+      <c r="FH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4873,7 +5279,7 @@
         <v>1900</v>
       </c>
       <c r="AT10" t="n">
-        <v>2290</v>
+        <v>1900</v>
       </c>
       <c r="AU10" t="n">
         <v>2290</v>
@@ -4897,10 +5303,10 @@
         <v>2290</v>
       </c>
       <c r="BB10" t="n">
-        <v>2000</v>
+        <v>2290</v>
       </c>
       <c r="BC10" t="n">
-        <v>2000</v>
+        <v>2290</v>
       </c>
       <c r="BD10" t="n">
         <v>2000</v>
@@ -4921,13 +5327,13 @@
         <v>2000</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2540</v>
+        <v>2000</v>
       </c>
       <c r="BK10" t="n">
-        <v>2540</v>
+        <v>2000</v>
       </c>
       <c r="BL10" t="n">
-        <v>2540</v>
+        <v>2000</v>
       </c>
       <c r="BM10" t="n">
         <v>2540</v>
@@ -4945,16 +5351,16 @@
         <v>2540</v>
       </c>
       <c r="BR10" t="n">
-        <v>2429.2</v>
+        <v>2540</v>
       </c>
       <c r="BS10" t="n">
-        <v>2429.2</v>
+        <v>2540</v>
       </c>
       <c r="BT10" t="n">
-        <v>2429.2</v>
+        <v>2540</v>
       </c>
       <c r="BU10" t="n">
-        <v>2429.2</v>
+        <v>2540</v>
       </c>
       <c r="BV10" t="n">
         <v>2429.2</v>
@@ -4969,19 +5375,19 @@
         <v>2429.2</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2632.6</v>
+        <v>2429.2</v>
       </c>
       <c r="CA10" t="n">
-        <v>2632.6</v>
+        <v>2429.2</v>
       </c>
       <c r="CB10" t="n">
-        <v>2632.6</v>
+        <v>2429.2</v>
       </c>
       <c r="CC10" t="n">
-        <v>2632.6</v>
+        <v>2429.2</v>
       </c>
       <c r="CD10" t="n">
-        <v>2632.6</v>
+        <v>2429.2</v>
       </c>
       <c r="CE10" t="n">
         <v>2632.6</v>
@@ -4993,22 +5399,22 @@
         <v>2632.6</v>
       </c>
       <c r="CH10" t="n">
-        <v>3196</v>
+        <v>2632.6</v>
       </c>
       <c r="CI10" t="n">
-        <v>3196</v>
+        <v>2632.6</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3196</v>
+        <v>2632.6</v>
       </c>
       <c r="CK10" t="n">
-        <v>3196</v>
+        <v>2632.6</v>
       </c>
       <c r="CL10" t="n">
-        <v>3196</v>
+        <v>2632.6</v>
       </c>
       <c r="CM10" t="n">
-        <v>3196</v>
+        <v>2632.6</v>
       </c>
       <c r="CN10" t="n">
         <v>3196</v>
@@ -5017,174 +5423,216 @@
         <v>3196</v>
       </c>
       <c r="CP10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CQ10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CR10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CS10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CT10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CU10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CV10" t="n">
-        <v>3305.305435</v>
+        <v>3196</v>
       </c>
       <c r="CW10" t="n">
         <v>3305.305435</v>
       </c>
       <c r="CX10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>3305.305435</v>
+      </c>
+      <c r="DF10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="DG10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="DH10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DI10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DJ10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DK10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DL10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DM10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DN10" t="n">
+        <v>3310.01253</v>
+      </c>
+      <c r="DO10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DP10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DQ10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DR10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DS10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DT10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DU10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DV10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DW10" t="n">
+        <v>3571.1606</v>
+      </c>
+      <c r="DX10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DY10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DZ10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="EA10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="EB10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="EC10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="ED10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="EE10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="EF10" t="n">
+        <v>3470.06764</v>
+      </c>
+      <c r="EG10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="EH10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="EI10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EJ10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EK10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EL10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EM10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EN10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EO10" t="n">
+        <v>3883.883312</v>
+      </c>
+      <c r="EP10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EQ10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="ER10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="ES10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="ET10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EU10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EV10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EW10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EX10" t="n">
+        <v>3667.954449</v>
+      </c>
+      <c r="EY10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EZ10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="FA10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="FB10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="FC10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="FD10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="FE10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="FF10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="ET10" t="inlineStr"/>
+      <c r="FG10" t="n">
+        <v>3833.38778189226</v>
+      </c>
+      <c r="FH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5325,7 +5773,7 @@
         <v>3830</v>
       </c>
       <c r="AT11" t="n">
-        <v>4510</v>
+        <v>3830</v>
       </c>
       <c r="AU11" t="n">
         <v>4510</v>
@@ -5349,10 +5797,10 @@
         <v>4510</v>
       </c>
       <c r="BB11" t="n">
-        <v>4746.826793</v>
+        <v>4510</v>
       </c>
       <c r="BC11" t="n">
-        <v>4746.826793</v>
+        <v>4510</v>
       </c>
       <c r="BD11" t="n">
         <v>4746.826793</v>
@@ -5373,13 +5821,13 @@
         <v>4746.826793</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4930</v>
+        <v>4746.826793</v>
       </c>
       <c r="BK11" t="n">
-        <v>4930</v>
+        <v>4746.826793</v>
       </c>
       <c r="BL11" t="n">
-        <v>4930</v>
+        <v>4746.826793</v>
       </c>
       <c r="BM11" t="n">
         <v>4930</v>
@@ -5397,16 +5845,16 @@
         <v>4930</v>
       </c>
       <c r="BR11" t="n">
-        <v>4535.599999999999</v>
+        <v>4930</v>
       </c>
       <c r="BS11" t="n">
-        <v>4535.599999999999</v>
+        <v>4930</v>
       </c>
       <c r="BT11" t="n">
-        <v>4535.599999999999</v>
+        <v>4930</v>
       </c>
       <c r="BU11" t="n">
-        <v>4535.599999999999</v>
+        <v>4930</v>
       </c>
       <c r="BV11" t="n">
         <v>4535.599999999999</v>
@@ -5421,19 +5869,19 @@
         <v>4535.599999999999</v>
       </c>
       <c r="BZ11" t="n">
-        <v>4638.099999999999</v>
+        <v>4535.599999999999</v>
       </c>
       <c r="CA11" t="n">
-        <v>4638.099999999999</v>
+        <v>4535.599999999999</v>
       </c>
       <c r="CB11" t="n">
-        <v>4638.099999999999</v>
+        <v>4535.599999999999</v>
       </c>
       <c r="CC11" t="n">
-        <v>4638.099999999999</v>
+        <v>4535.599999999999</v>
       </c>
       <c r="CD11" t="n">
-        <v>4638.099999999999</v>
+        <v>4535.599999999999</v>
       </c>
       <c r="CE11" t="n">
         <v>4638.099999999999</v>
@@ -5445,22 +5893,22 @@
         <v>4638.099999999999</v>
       </c>
       <c r="CH11" t="n">
-        <v>4676</v>
+        <v>4638.099999999999</v>
       </c>
       <c r="CI11" t="n">
-        <v>4676</v>
+        <v>4638.099999999999</v>
       </c>
       <c r="CJ11" t="n">
-        <v>4676</v>
+        <v>4638.099999999999</v>
       </c>
       <c r="CK11" t="n">
-        <v>4676</v>
+        <v>4638.099999999999</v>
       </c>
       <c r="CL11" t="n">
-        <v>4676</v>
+        <v>4638.099999999999</v>
       </c>
       <c r="CM11" t="n">
-        <v>4676</v>
+        <v>4638.099999999999</v>
       </c>
       <c r="CN11" t="n">
         <v>4676</v>
@@ -5469,174 +5917,216 @@
         <v>4676</v>
       </c>
       <c r="CP11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CQ11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CR11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CS11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CT11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CU11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CV11" t="n">
-        <v>5006.95755</v>
+        <v>4676</v>
       </c>
       <c r="CW11" t="n">
         <v>5006.95755</v>
       </c>
       <c r="CX11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>5006.95755</v>
+      </c>
+      <c r="DF11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="DG11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="DH11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DI11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DJ11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DK11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DL11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DM11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DN11" t="n">
+        <v>5072.832861</v>
+      </c>
+      <c r="DO11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DP11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DQ11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DR11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DS11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DT11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DU11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DV11" t="n">
         <v>5937.938753</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DW11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="DX11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DY11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DZ11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="EA11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="EB11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="EC11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="ED11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="EE11" t="n">
         <v>5935.501018</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="EF11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="EG11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="EH11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="EI11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="EJ11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EK11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EL11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EM11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EN11" t="n">
         <v>6085.851527</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EO11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="EP11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EQ11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="ER11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="ES11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="ET11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EU11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EV11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EW11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EX11" t="n">
+        <v>6707.697045</v>
+      </c>
+      <c r="EY11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EZ11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="FA11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="FB11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="FC11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="FD11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="FE11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="FF11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="ET11" t="inlineStr"/>
+      <c r="FG11" t="n">
+        <v>6720.36885</v>
+      </c>
+      <c r="FH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5777,7 +6267,7 @@
         <v>5440</v>
       </c>
       <c r="AT12" t="n">
-        <v>5950</v>
+        <v>5440</v>
       </c>
       <c r="AU12" t="n">
         <v>5950</v>
@@ -5801,10 +6291,10 @@
         <v>5950</v>
       </c>
       <c r="BB12" t="n">
-        <v>6165.6</v>
+        <v>5950</v>
       </c>
       <c r="BC12" t="n">
-        <v>6165.6</v>
+        <v>5950</v>
       </c>
       <c r="BD12" t="n">
         <v>6165.6</v>
@@ -5825,13 +6315,13 @@
         <v>6165.6</v>
       </c>
       <c r="BJ12" t="n">
-        <v>6590</v>
+        <v>6165.6</v>
       </c>
       <c r="BK12" t="n">
-        <v>6590</v>
+        <v>6165.6</v>
       </c>
       <c r="BL12" t="n">
-        <v>6590</v>
+        <v>6165.6</v>
       </c>
       <c r="BM12" t="n">
         <v>6590</v>
@@ -5849,16 +6339,16 @@
         <v>6590</v>
       </c>
       <c r="BR12" t="n">
-        <v>4982.400000000001</v>
+        <v>6590</v>
       </c>
       <c r="BS12" t="n">
-        <v>4982.400000000001</v>
+        <v>6590</v>
       </c>
       <c r="BT12" t="n">
-        <v>4982.400000000001</v>
+        <v>6590</v>
       </c>
       <c r="BU12" t="n">
-        <v>4982.400000000001</v>
+        <v>6590</v>
       </c>
       <c r="BV12" t="n">
         <v>4982.400000000001</v>
@@ -5873,19 +6363,19 @@
         <v>4982.400000000001</v>
       </c>
       <c r="BZ12" t="n">
-        <v>6137.7</v>
+        <v>4982.400000000001</v>
       </c>
       <c r="CA12" t="n">
-        <v>6137.7</v>
+        <v>4982.400000000001</v>
       </c>
       <c r="CB12" t="n">
-        <v>6137.7</v>
+        <v>4982.400000000001</v>
       </c>
       <c r="CC12" t="n">
-        <v>6137.7</v>
+        <v>4982.400000000001</v>
       </c>
       <c r="CD12" t="n">
-        <v>6137.7</v>
+        <v>4982.400000000001</v>
       </c>
       <c r="CE12" t="n">
         <v>6137.7</v>
@@ -5897,22 +6387,22 @@
         <v>6137.7</v>
       </c>
       <c r="CH12" t="n">
-        <v>10134.8</v>
+        <v>6137.7</v>
       </c>
       <c r="CI12" t="n">
-        <v>10134.8</v>
+        <v>6137.7</v>
       </c>
       <c r="CJ12" t="n">
-        <v>10134.8</v>
+        <v>6137.7</v>
       </c>
       <c r="CK12" t="n">
-        <v>10134.8</v>
+        <v>6137.7</v>
       </c>
       <c r="CL12" t="n">
-        <v>10134.8</v>
+        <v>6137.7</v>
       </c>
       <c r="CM12" t="n">
-        <v>10134.8</v>
+        <v>6137.7</v>
       </c>
       <c r="CN12" t="n">
         <v>10134.8</v>
@@ -5921,174 +6411,216 @@
         <v>10134.8</v>
       </c>
       <c r="CP12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CQ12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CR12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CS12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CT12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CU12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CV12" t="n">
-        <v>11755.777878</v>
+        <v>10134.8</v>
       </c>
       <c r="CW12" t="n">
         <v>11755.777878</v>
       </c>
       <c r="CX12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>11755.777878</v>
+      </c>
+      <c r="DF12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CY12" t="n">
+      <c r="DG12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="CZ12" t="n">
+      <c r="DH12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="DA12" t="n">
+      <c r="DI12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="DB12" t="n">
+      <c r="DJ12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="DC12" t="n">
+      <c r="DK12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="DD12" t="n">
+      <c r="DL12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="DE12" t="n">
+      <c r="DM12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="DF12" t="n">
+      <c r="DN12" t="n">
+        <v>14557.450646</v>
+      </c>
+      <c r="DO12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DG12" t="n">
+      <c r="DP12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="DQ12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DI12" t="n">
+      <c r="DR12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DJ12" t="n">
+      <c r="DS12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="DT12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DU12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DV12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DW12" t="n">
+        <v>19297.422279</v>
+      </c>
+      <c r="DX12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DY12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DZ12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="EA12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="EB12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="EC12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="ED12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="EE12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="EF12" t="n">
+        <v>23963.986065</v>
+      </c>
+      <c r="EG12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="EH12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="EI12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="EJ12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EK12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EL12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EM12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="EN12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EO12" t="n">
+        <v>25656.728722</v>
+      </c>
+      <c r="EP12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EQ12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="ER12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="ES12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="ET12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EU12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EV12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EW12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EX12" t="n">
+        <v>21345.929281</v>
+      </c>
+      <c r="EY12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EZ12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="FA12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="FB12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="FC12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="FD12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="FE12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="FF12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="ET12" t="inlineStr"/>
+      <c r="FG12" t="n">
+        <v>21708.158825</v>
+      </c>
+      <c r="FH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6229,7 +6761,7 @@
         <v>10920</v>
       </c>
       <c r="AT13" t="n">
-        <v>11750</v>
+        <v>10920</v>
       </c>
       <c r="AU13" t="n">
         <v>11750</v>
@@ -6253,10 +6785,10 @@
         <v>11750</v>
       </c>
       <c r="BB13" t="n">
-        <v>12359.338</v>
+        <v>11750</v>
       </c>
       <c r="BC13" t="n">
-        <v>12359.338</v>
+        <v>11750</v>
       </c>
       <c r="BD13" t="n">
         <v>12359.338</v>
@@ -6277,13 +6809,13 @@
         <v>12359.338</v>
       </c>
       <c r="BJ13" t="n">
-        <v>15120</v>
+        <v>12359.338</v>
       </c>
       <c r="BK13" t="n">
-        <v>15120</v>
+        <v>12359.338</v>
       </c>
       <c r="BL13" t="n">
-        <v>15120</v>
+        <v>12359.338</v>
       </c>
       <c r="BM13" t="n">
         <v>15120</v>
@@ -6301,16 +6833,16 @@
         <v>15120</v>
       </c>
       <c r="BR13" t="n">
-        <v>16381.309</v>
+        <v>15120</v>
       </c>
       <c r="BS13" t="n">
-        <v>16381.309</v>
+        <v>15120</v>
       </c>
       <c r="BT13" t="n">
-        <v>16381.309</v>
+        <v>15120</v>
       </c>
       <c r="BU13" t="n">
-        <v>16381.309</v>
+        <v>15120</v>
       </c>
       <c r="BV13" t="n">
         <v>16381.309</v>
@@ -6325,19 +6857,19 @@
         <v>16381.309</v>
       </c>
       <c r="BZ13" t="n">
-        <v>17294.7196</v>
+        <v>16381.309</v>
       </c>
       <c r="CA13" t="n">
-        <v>17294.7196</v>
+        <v>16381.309</v>
       </c>
       <c r="CB13" t="n">
-        <v>17294.7196</v>
+        <v>16381.309</v>
       </c>
       <c r="CC13" t="n">
-        <v>17294.7196</v>
+        <v>16381.309</v>
       </c>
       <c r="CD13" t="n">
-        <v>17294.7196</v>
+        <v>16381.309</v>
       </c>
       <c r="CE13" t="n">
         <v>17294.7196</v>
@@ -6349,22 +6881,22 @@
         <v>17294.7196</v>
       </c>
       <c r="CH13" t="n">
-        <v>18347.203</v>
+        <v>17294.7196</v>
       </c>
       <c r="CI13" t="n">
-        <v>18347.203</v>
+        <v>17294.7196</v>
       </c>
       <c r="CJ13" t="n">
-        <v>18347.203</v>
+        <v>17294.7196</v>
       </c>
       <c r="CK13" t="n">
-        <v>18347.203</v>
+        <v>17294.7196</v>
       </c>
       <c r="CL13" t="n">
-        <v>18347.203</v>
+        <v>17294.7196</v>
       </c>
       <c r="CM13" t="n">
-        <v>18347.203</v>
+        <v>17294.7196</v>
       </c>
       <c r="CN13" t="n">
         <v>18347.203</v>
@@ -6373,174 +6905,216 @@
         <v>18347.203</v>
       </c>
       <c r="CP13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CQ13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CR13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CS13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CT13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CU13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CV13" t="n">
-        <v>17867.55</v>
+        <v>18347.203</v>
       </c>
       <c r="CW13" t="n">
         <v>17867.55</v>
       </c>
       <c r="CX13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>17867.55</v>
+      </c>
+      <c r="DF13" t="n">
         <v>17669</v>
       </c>
-      <c r="CY13" t="n">
+      <c r="DG13" t="n">
         <v>17669</v>
       </c>
-      <c r="CZ13" t="n">
+      <c r="DH13" t="n">
         <v>17669</v>
       </c>
-      <c r="DA13" t="n">
+      <c r="DI13" t="n">
         <v>17669</v>
       </c>
-      <c r="DB13" t="n">
+      <c r="DJ13" t="n">
         <v>17669</v>
       </c>
-      <c r="DC13" t="n">
+      <c r="DK13" t="n">
         <v>17669</v>
       </c>
-      <c r="DD13" t="n">
+      <c r="DL13" t="n">
         <v>17669</v>
       </c>
-      <c r="DE13" t="n">
+      <c r="DM13" t="n">
         <v>17669</v>
       </c>
-      <c r="DF13" t="n">
+      <c r="DN13" t="n">
+        <v>17669</v>
+      </c>
+      <c r="DO13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DG13" t="n">
+      <c r="DP13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DH13" t="n">
+      <c r="DQ13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DI13" t="n">
+      <c r="DR13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DJ13" t="n">
+      <c r="DS13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DK13" t="n">
+      <c r="DT13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="DU13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DV13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DW13" t="n">
+        <v>18772.738</v>
+      </c>
+      <c r="DX13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DY13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DZ13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="EA13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="EB13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="EC13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="ED13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="EE13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="EF13" t="n">
+        <v>20069.703</v>
+      </c>
+      <c r="EG13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="EH13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="EI13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="EJ13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EK13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EL13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EM13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="EN13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EO13" t="n">
+        <v>21163.693</v>
+      </c>
+      <c r="EP13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EQ13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="ER13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="ES13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="ET13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EU13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EV13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EW13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EX13" t="n">
+        <v>21453.662</v>
+      </c>
+      <c r="EY13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EZ13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="FA13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="FB13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="FC13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="FD13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="FE13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="FF13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="ET13" t="inlineStr"/>
+      <c r="FG13" t="n">
+        <v>23509.948</v>
+      </c>
+      <c r="FH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6681,7 +7255,7 @@
         <v>5830</v>
       </c>
       <c r="AT14" t="n">
-        <v>5450</v>
+        <v>5830</v>
       </c>
       <c r="AU14" t="n">
         <v>5450</v>
@@ -6705,10 +7279,10 @@
         <v>5450</v>
       </c>
       <c r="BB14" t="n">
-        <v>4749.97148</v>
+        <v>5450</v>
       </c>
       <c r="BC14" t="n">
-        <v>4749.97148</v>
+        <v>5450</v>
       </c>
       <c r="BD14" t="n">
         <v>4749.97148</v>
@@ -6729,13 +7303,13 @@
         <v>4749.97148</v>
       </c>
       <c r="BJ14" t="n">
-        <v>5400</v>
+        <v>4749.97148</v>
       </c>
       <c r="BK14" t="n">
-        <v>5400</v>
+        <v>4749.97148</v>
       </c>
       <c r="BL14" t="n">
-        <v>5400</v>
+        <v>4749.97148</v>
       </c>
       <c r="BM14" t="n">
         <v>5400</v>
@@ -6753,16 +7327,16 @@
         <v>5400</v>
       </c>
       <c r="BR14" t="n">
-        <v>4570</v>
+        <v>5400</v>
       </c>
       <c r="BS14" t="n">
-        <v>4570</v>
+        <v>5400</v>
       </c>
       <c r="BT14" t="n">
-        <v>4570</v>
+        <v>5400</v>
       </c>
       <c r="BU14" t="n">
-        <v>4570</v>
+        <v>5400</v>
       </c>
       <c r="BV14" t="n">
         <v>4570</v>
@@ -6777,19 +7351,19 @@
         <v>4570</v>
       </c>
       <c r="BZ14" t="n">
-        <v>4920</v>
+        <v>4570</v>
       </c>
       <c r="CA14" t="n">
-        <v>4920</v>
+        <v>4570</v>
       </c>
       <c r="CB14" t="n">
-        <v>4920</v>
+        <v>4570</v>
       </c>
       <c r="CC14" t="n">
-        <v>4920</v>
+        <v>4570</v>
       </c>
       <c r="CD14" t="n">
-        <v>4920</v>
+        <v>4570</v>
       </c>
       <c r="CE14" t="n">
         <v>4920</v>
@@ -6801,22 +7375,22 @@
         <v>4920</v>
       </c>
       <c r="CH14" t="n">
-        <v>5510</v>
+        <v>4920</v>
       </c>
       <c r="CI14" t="n">
-        <v>5510</v>
+        <v>4920</v>
       </c>
       <c r="CJ14" t="n">
-        <v>5510</v>
+        <v>4920</v>
       </c>
       <c r="CK14" t="n">
-        <v>5510</v>
+        <v>4920</v>
       </c>
       <c r="CL14" t="n">
-        <v>5510</v>
+        <v>4920</v>
       </c>
       <c r="CM14" t="n">
-        <v>5510</v>
+        <v>4920</v>
       </c>
       <c r="CN14" t="n">
         <v>5510</v>
@@ -6825,174 +7399,216 @@
         <v>5510</v>
       </c>
       <c r="CP14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CQ14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CR14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CS14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CT14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CU14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CV14" t="n">
-        <v>5960</v>
+        <v>5510</v>
       </c>
       <c r="CW14" t="n">
         <v>5960</v>
       </c>
       <c r="CX14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>5960</v>
+      </c>
+      <c r="DF14" t="n">
         <v>5870</v>
       </c>
-      <c r="CY14" t="n">
+      <c r="DG14" t="n">
         <v>5870</v>
       </c>
-      <c r="CZ14" t="n">
+      <c r="DH14" t="n">
         <v>5870</v>
       </c>
-      <c r="DA14" t="n">
+      <c r="DI14" t="n">
         <v>5870</v>
       </c>
-      <c r="DB14" t="n">
+      <c r="DJ14" t="n">
         <v>5870</v>
       </c>
-      <c r="DC14" t="n">
+      <c r="DK14" t="n">
         <v>5870</v>
       </c>
-      <c r="DD14" t="n">
+      <c r="DL14" t="n">
         <v>5870</v>
       </c>
-      <c r="DE14" t="n">
+      <c r="DM14" t="n">
         <v>5870</v>
       </c>
-      <c r="DF14" t="n">
+      <c r="DN14" t="n">
+        <v>5870</v>
+      </c>
+      <c r="DO14" t="n">
         <v>6350</v>
       </c>
-      <c r="DG14" t="n">
+      <c r="DP14" t="n">
         <v>6350</v>
       </c>
-      <c r="DH14" t="n">
+      <c r="DQ14" t="n">
         <v>6350</v>
       </c>
-      <c r="DI14" t="n">
+      <c r="DR14" t="n">
         <v>6350</v>
       </c>
-      <c r="DJ14" t="n">
+      <c r="DS14" t="n">
         <v>6350</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="DT14" t="n">
         <v>6350</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DU14" t="n">
         <v>6350</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DV14" t="n">
         <v>6350</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DW14" t="n">
+        <v>6350</v>
+      </c>
+      <c r="DX14" t="n">
         <v>6590</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DY14" t="n">
         <v>6590</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DZ14" t="n">
         <v>6590</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="EA14" t="n">
         <v>6590</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="EB14" t="n">
         <v>6590</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="EC14" t="n">
         <v>6590</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="ED14" t="n">
         <v>6590</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="EE14" t="n">
         <v>6590</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="EF14" t="n">
+        <v>6590</v>
+      </c>
+      <c r="EG14" t="n">
         <v>8340</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="EH14" t="n">
         <v>8340</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="EI14" t="n">
         <v>8340</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="EJ14" t="n">
         <v>8340</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EK14" t="n">
         <v>8340</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EL14" t="n">
         <v>8340</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EM14" t="n">
         <v>8340</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="EN14" t="n">
         <v>8340</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EO14" t="n">
+        <v>8340</v>
+      </c>
+      <c r="EP14" t="n">
         <v>11720</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EQ14" t="n">
         <v>11720</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="ER14" t="n">
         <v>11720</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="ES14" t="n">
         <v>11720</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="ET14" t="n">
         <v>11720</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EU14" t="n">
         <v>11720</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EV14" t="n">
         <v>11720</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EW14" t="n">
         <v>11720</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EX14" t="n">
+        <v>11720</v>
+      </c>
+      <c r="EY14" t="n">
         <v>11360</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EZ14" t="n">
         <v>11360</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="FA14" t="n">
         <v>11360</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="FB14" t="n">
         <v>11360</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="FC14" t="n">
         <v>11360</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="FD14" t="n">
         <v>11360</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="FE14" t="n">
         <v>11360</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="FF14" t="n">
         <v>11360</v>
       </c>
-      <c r="ET14" t="inlineStr"/>
+      <c r="FG14" t="n">
+        <v>11360</v>
+      </c>
+      <c r="FH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7133,7 +7749,7 @@
         <v>131670</v>
       </c>
       <c r="AT15" t="n">
-        <v>140700</v>
+        <v>131670</v>
       </c>
       <c r="AU15" t="n">
         <v>140700</v>
@@ -7157,10 +7773,10 @@
         <v>140700</v>
       </c>
       <c r="BB15" t="n">
-        <v>145958.090937</v>
+        <v>140700</v>
       </c>
       <c r="BC15" t="n">
-        <v>145958.090937</v>
+        <v>140700</v>
       </c>
       <c r="BD15" t="n">
         <v>145958.090937</v>
@@ -7181,13 +7797,13 @@
         <v>145958.090937</v>
       </c>
       <c r="BJ15" t="n">
-        <v>152920</v>
+        <v>145958.090937</v>
       </c>
       <c r="BK15" t="n">
-        <v>152920</v>
+        <v>145958.090937</v>
       </c>
       <c r="BL15" t="n">
-        <v>152920</v>
+        <v>145958.090937</v>
       </c>
       <c r="BM15" t="n">
         <v>152920</v>
@@ -7205,16 +7821,16 @@
         <v>152920</v>
       </c>
       <c r="BR15" t="n">
-        <v>157422.409</v>
+        <v>152920</v>
       </c>
       <c r="BS15" t="n">
-        <v>157422.409</v>
+        <v>152920</v>
       </c>
       <c r="BT15" t="n">
-        <v>157422.409</v>
+        <v>152920</v>
       </c>
       <c r="BU15" t="n">
-        <v>157422.409</v>
+        <v>152920</v>
       </c>
       <c r="BV15" t="n">
         <v>157422.409</v>
@@ -7229,19 +7845,19 @@
         <v>157422.409</v>
       </c>
       <c r="BZ15" t="n">
-        <v>165422.9196</v>
+        <v>157422.409</v>
       </c>
       <c r="CA15" t="n">
-        <v>165422.9196</v>
+        <v>157422.409</v>
       </c>
       <c r="CB15" t="n">
-        <v>165422.9196</v>
+        <v>157422.409</v>
       </c>
       <c r="CC15" t="n">
-        <v>165422.9196</v>
+        <v>157422.409</v>
       </c>
       <c r="CD15" t="n">
-        <v>165422.9196</v>
+        <v>157422.409</v>
       </c>
       <c r="CE15" t="n">
         <v>165422.9196</v>
@@ -7253,22 +7869,22 @@
         <v>165422.9196</v>
       </c>
       <c r="CH15" t="n">
-        <v>175404.803</v>
+        <v>165422.9196</v>
       </c>
       <c r="CI15" t="n">
-        <v>175404.803</v>
+        <v>165422.9196</v>
       </c>
       <c r="CJ15" t="n">
-        <v>175404.803</v>
+        <v>165422.9196</v>
       </c>
       <c r="CK15" t="n">
-        <v>175404.803</v>
+        <v>165422.9196</v>
       </c>
       <c r="CL15" t="n">
-        <v>175404.803</v>
+        <v>165422.9196</v>
       </c>
       <c r="CM15" t="n">
-        <v>175404.803</v>
+        <v>165422.9196</v>
       </c>
       <c r="CN15" t="n">
         <v>175404.803</v>
@@ -7277,174 +7893,216 @@
         <v>175404.803</v>
       </c>
       <c r="CP15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CQ15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CR15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CS15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CT15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CU15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CV15" t="n">
-        <v>176274.40352</v>
+        <v>175404.803</v>
       </c>
       <c r="CW15" t="n">
         <v>176274.40352</v>
       </c>
       <c r="CX15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>176274.40352</v>
+      </c>
+      <c r="DF15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CY15" t="n">
+      <c r="DG15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="CZ15" t="n">
+      <c r="DH15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="DA15" t="n">
+      <c r="DI15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="DB15" t="n">
+      <c r="DJ15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="DC15" t="n">
+      <c r="DK15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="DD15" t="n">
+      <c r="DL15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="DE15" t="n">
+      <c r="DM15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="DF15" t="n">
+      <c r="DN15" t="n">
+        <v>183189.118338</v>
+      </c>
+      <c r="DO15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DG15" t="n">
+      <c r="DP15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DH15" t="n">
+      <c r="DQ15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="DR15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DJ15" t="n">
+      <c r="DS15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="DT15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DU15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DV15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DW15" t="n">
+        <v>203446.640777</v>
+      </c>
+      <c r="DX15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DY15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DZ15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="EA15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="EB15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="EC15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="ED15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="EE15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="EF15" t="n">
+        <v>214666.970432</v>
+      </c>
+      <c r="EG15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="EH15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="EI15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="EJ15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EK15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EL15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EM15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="EN15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EO15" t="n">
+        <v>227329.85984</v>
+      </c>
+      <c r="EP15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EQ15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="ER15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="ES15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="ET15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EU15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EV15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EW15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EX15" t="n">
+        <v>234669.960377</v>
+      </c>
+      <c r="EY15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EZ15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="FA15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="FB15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="FC15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="FD15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="FE15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="FF15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="ET15" t="inlineStr"/>
+      <c r="FG15" t="n">
+        <v>237636.574449784</v>
+      </c>
+      <c r="FH15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
